--- a/AAII_Financials/Quarterly/MSVB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSVB_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>MSVB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,83 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E8" s="3">
         <v>2000</v>
@@ -746,19 +753,19 @@
         <v>2000</v>
       </c>
       <c r="H8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J8" s="3">
         <v>1900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1700</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1600</v>
       </c>
       <c r="M8" s="3">
         <v>1600</v>
@@ -766,11 +773,17 @@
       <c r="N8" s="3">
         <v>1600</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,8 +823,14 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +870,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +983,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1030,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,8 +1097,10 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1055,81 +1108,93 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>-100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E18" s="3">
         <v>1700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G18" s="3">
         <v>1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1700</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,90 +1210,104 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1600</v>
+        <v>-1200</v>
       </c>
       <c r="E20" s="3">
         <v>-1500</v>
       </c>
       <c r="F20" s="3">
-        <v>-1400</v>
+        <v>-1600</v>
       </c>
       <c r="G20" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="H20" s="3">
         <v>-1400</v>
       </c>
       <c r="I20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1100</v>
       </c>
       <c r="L20" s="3">
         <v>-1100</v>
       </c>
       <c r="M20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>300</v>
+      </c>
+      <c r="F21" s="3">
         <v>100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>600</v>
-      </c>
-      <c r="H21" s="3">
-        <v>400</v>
-      </c>
-      <c r="I21" s="3">
-        <v>400</v>
       </c>
       <c r="J21" s="3">
         <v>400</v>
       </c>
       <c r="K21" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
+      <c r="M21" s="3">
+        <v>700</v>
       </c>
       <c r="N21" s="3">
+        <v>400</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>800</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,63 +1347,75 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
@@ -1336,22 +1427,28 @@
         <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
       </c>
       <c r="M24" s="3">
+        <v>500</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>300</v>
       </c>
       <c r="J26" s="3">
         <v>300</v>
       </c>
       <c r="K26" s="3">
+        <v>300</v>
+      </c>
+      <c r="L26" s="3">
+        <v>300</v>
+      </c>
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>300</v>
       </c>
       <c r="J27" s="3">
         <v>300</v>
       </c>
       <c r="K27" s="3">
+        <v>300</v>
+      </c>
+      <c r="L27" s="3">
+        <v>300</v>
+      </c>
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1770,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="E32" s="3">
         <v>1500</v>
       </c>
       <c r="F32" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="G32" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H32" s="3">
         <v>1400</v>
       </c>
       <c r="I32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K32" s="3">
         <v>1300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1100</v>
       </c>
       <c r="L32" s="3">
         <v>1100</v>
       </c>
       <c r="M32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>300</v>
       </c>
       <c r="J33" s="3">
         <v>300</v>
       </c>
       <c r="K33" s="3">
+        <v>300</v>
+      </c>
+      <c r="L33" s="3">
+        <v>300</v>
+      </c>
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>300</v>
       </c>
       <c r="J35" s="3">
         <v>300</v>
       </c>
       <c r="K35" s="3">
+        <v>300</v>
+      </c>
+      <c r="L35" s="3">
+        <v>300</v>
+      </c>
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,38 +2052,40 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F41" s="3">
         <v>1300</v>
-      </c>
-      <c r="E41" s="3">
-        <v>900</v>
-      </c>
-      <c r="F41" s="3">
-        <v>900</v>
       </c>
       <c r="G41" s="3">
         <v>900</v>
       </c>
       <c r="H41" s="3">
+        <v>900</v>
+      </c>
+      <c r="I41" s="3">
+        <v>900</v>
+      </c>
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1922,38 +2095,44 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F42" s="3">
         <v>19400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>22000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>9900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>12600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>19100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>43100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>16400</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1963,8 +2142,14 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2004,8 +2189,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,8 +2236,14 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2086,8 +2283,14 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2127,8 +2330,14 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,8 +2377,14 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2189,17 +2404,17 @@
         <v>1900</v>
       </c>
       <c r="I48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K48" s="3">
         <v>2000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2209,8 +2424,14 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2471,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2565,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2373,8 +2612,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,38 +2659,44 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>208300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>208400</v>
+      </c>
+      <c r="F54" s="3">
         <v>209100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>207700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>198700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>200700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>199400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>214800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>184000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2455,8 +2706,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2748,10 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2500,20 +2761,20 @@
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2530,8 +2791,14 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2571,8 +2838,14 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2586,23 +2859,23 @@
         <v>600</v>
       </c>
       <c r="G59" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H59" s="3">
         <v>600</v>
       </c>
       <c r="I59" s="3">
+        <v>700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>600</v>
+      </c>
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2612,8 +2885,14 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2653,8 +2932,14 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,8 +2979,14 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +3026,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,38 +3167,44 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>158800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>157600</v>
+      </c>
+      <c r="F66" s="3">
         <v>158200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>156900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>149100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>151800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>151800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>190600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>160100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,8 +3214,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,38 +3421,44 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F72" s="3">
         <v>21200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>21200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>21000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>20700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>20200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>19900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>19600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3121,8 +3468,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,38 +3609,44 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>50900</v>
+        <v>49500</v>
       </c>
       <c r="E76" s="3">
         <v>50800</v>
       </c>
       <c r="F76" s="3">
+        <v>50900</v>
+      </c>
+      <c r="G76" s="3">
+        <v>50800</v>
+      </c>
+      <c r="H76" s="3">
         <v>49600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>48800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>47700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>24100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>23900</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3285,8 +3656,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>300</v>
       </c>
       <c r="J81" s="3">
         <v>300</v>
       </c>
       <c r="K81" s="3">
+        <v>300</v>
+      </c>
+      <c r="L81" s="3">
+        <v>300</v>
+      </c>
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3439,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -3462,17 +3859,23 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E89" s="3">
         <v>400</v>
       </c>
       <c r="F89" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G89" s="3">
         <v>400</v>
       </c>
       <c r="H89" s="3">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="I89" s="3">
         <v>400</v>
       </c>
       <c r="J89" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K89" s="3">
+        <v>400</v>
+      </c>
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,25 +4173,27 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3766,17 +4207,23 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4310,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>4000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-6700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-8800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-4100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-4200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>2300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3930,10 +4397,10 @@
         <v>-100</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4564,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>7700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-2700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-16500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>30500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>7700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1700</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4658,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>12100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-6400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-24000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>26800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>8900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-3400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>900</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSVB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSVB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>MSVB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,90 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1900</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2000</v>
       </c>
       <c r="F8" s="3">
         <v>2000</v>
@@ -759,16 +763,16 @@
         <v>2000</v>
       </c>
       <c r="J8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1700</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1600</v>
       </c>
       <c r="N8" s="3">
         <v>1600</v>
@@ -779,11 +783,14 @@
       <c r="P8" s="3">
         <v>1600</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,13 +1125,14 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
@@ -1114,16 +1141,16 @@
         <v>300</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
@@ -1132,22 +1159,25 @@
         <v>200</v>
       </c>
       <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
         <v>-200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
       <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>-100</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,46 +1185,49 @@
         <v>1600</v>
       </c>
       <c r="E18" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F18" s="3">
         <v>1700</v>
       </c>
       <c r="G18" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H18" s="3">
         <v>1800</v>
       </c>
       <c r="I18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J18" s="3">
         <v>2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1800</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1400</v>
       </c>
       <c r="O18" s="3">
         <v>1400</v>
       </c>
       <c r="P18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1700</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,16 +1255,16 @@
         <v>-1200</v>
       </c>
       <c r="E20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1400</v>
       </c>
       <c r="I20" s="3">
         <v>-1400</v>
@@ -1239,10 +1273,10 @@
         <v>-1400</v>
       </c>
       <c r="K20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1100</v>
       </c>
       <c r="M20" s="3">
         <v>-1100</v>
@@ -1251,39 +1285,42 @@
         <v>-1100</v>
       </c>
       <c r="O20" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>400</v>
       </c>
       <c r="K21" s="3">
         <v>400</v>
@@ -1292,22 +1329,25 @@
         <v>400</v>
       </c>
       <c r="M21" s="3">
+        <v>400</v>
+      </c>
+      <c r="N21" s="3">
         <v>700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>800</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,8 +1393,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1362,55 +1405,58 @@
         <v>400</v>
       </c>
       <c r="E23" s="3">
+        <v>400</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>400</v>
       </c>
       <c r="L23" s="3">
         <v>400</v>
       </c>
       <c r="M23" s="3">
+        <v>400</v>
+      </c>
+      <c r="N23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1418,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
@@ -1433,22 +1479,25 @@
         <v>100</v>
       </c>
       <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
         <v>500</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
       </c>
       <c r="P24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,31 +1543,34 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>300</v>
+      </c>
+      <c r="E26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>300</v>
       </c>
       <c r="K26" s="3">
         <v>300</v>
@@ -1527,45 +1579,48 @@
         <v>300</v>
       </c>
       <c r="M26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N26" s="3">
         <v>200</v>
       </c>
       <c r="O26" s="3">
+        <v>200</v>
+      </c>
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>500</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>300</v>
       </c>
       <c r="K27" s="3">
         <v>300</v>
@@ -1574,22 +1629,25 @@
         <v>300</v>
       </c>
       <c r="M27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N27" s="3">
         <v>200</v>
       </c>
       <c r="O27" s="3">
+        <v>200</v>
+      </c>
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>500</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,16 +1855,16 @@
         <v>1200</v>
       </c>
       <c r="E32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1400</v>
       </c>
       <c r="I32" s="3">
         <v>1400</v>
@@ -1803,10 +1873,10 @@
         <v>1400</v>
       </c>
       <c r="K32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L32" s="3">
         <v>1300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1100</v>
       </c>
       <c r="M32" s="3">
         <v>1100</v>
@@ -1815,39 +1885,42 @@
         <v>1100</v>
       </c>
       <c r="O32" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>300</v>
       </c>
       <c r="K33" s="3">
         <v>300</v>
@@ -1856,22 +1929,25 @@
         <v>300</v>
       </c>
       <c r="M33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N33" s="3">
         <v>200</v>
       </c>
       <c r="O33" s="3">
+        <v>200</v>
+      </c>
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,31 +1993,34 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>300</v>
       </c>
       <c r="K35" s="3">
         <v>300</v>
@@ -1950,74 +2029,80 @@
         <v>300</v>
       </c>
       <c r="M35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N35" s="3">
         <v>200</v>
       </c>
       <c r="O35" s="3">
+        <v>200</v>
+      </c>
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,22 +2140,23 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E41" s="3">
         <v>2100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>900</v>
       </c>
       <c r="H41" s="3">
         <v>900</v>
@@ -2078,17 +2165,17 @@
         <v>900</v>
       </c>
       <c r="J41" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K41" s="3">
         <v>800</v>
       </c>
       <c r="L41" s="3">
+        <v>800</v>
+      </c>
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2101,41 +2188,44 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E42" s="3">
         <v>20400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>18000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>19400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>22000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>9900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>12600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>19100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>43100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>16400</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,13 +2488,16 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E48" s="3">
         <v>1900</v>
@@ -2410,13 +2518,13 @@
         <v>1900</v>
       </c>
       <c r="K48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="L48" s="3">
         <v>2000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
+      <c r="M48" s="3">
+        <v>2000</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,41 +2788,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>217500</v>
+      </c>
+      <c r="E54" s="3">
         <v>208300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>208400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>209100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>207700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>198700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>200700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>199400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>214800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>184000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2761,8 +2892,8 @@
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+      <c r="F57" s="3">
+        <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2776,8 +2907,8 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,13 +2978,16 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="E59" s="3">
         <v>600</v>
@@ -2865,19 +3002,19 @@
         <v>600</v>
       </c>
       <c r="I59" s="3">
+        <v>600</v>
+      </c>
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>500</v>
       </c>
       <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
+      <c r="M59" s="3">
+        <v>500</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
@@ -2891,8 +3028,11 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,41 +3328,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>166600</v>
+      </c>
+      <c r="E66" s="3">
         <v>158800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>157600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>158200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>156900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>149100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>151800</v>
       </c>
       <c r="J66" s="3">
         <v>151800</v>
       </c>
       <c r="K66" s="3">
+        <v>151800</v>
+      </c>
+      <c r="L66" s="3">
         <v>190600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>160100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,41 +3598,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E72" s="3">
         <v>21700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>21400</v>
-      </c>
-      <c r="F72" s="3">
-        <v>21200</v>
       </c>
       <c r="G72" s="3">
         <v>21200</v>
       </c>
       <c r="H72" s="3">
+        <v>21200</v>
+      </c>
+      <c r="I72" s="3">
         <v>21000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>20700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>20200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,41 +3798,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E76" s="3">
         <v>49500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>50800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>50900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>50800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>49600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>48800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>47700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,83 +3898,89 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>300</v>
       </c>
       <c r="K81" s="3">
         <v>300</v>
@@ -3794,22 +3989,25 @@
         <v>300</v>
       </c>
       <c r="M81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N81" s="3">
         <v>200</v>
       </c>
       <c r="O81" s="3">
+        <v>200</v>
+      </c>
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3836,11 +4035,11 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
@@ -3865,8 +4064,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
         <v>800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
-      </c>
-      <c r="L89" s="3">
-        <v>300</v>
       </c>
       <c r="M89" s="3">
         <v>300</v>
       </c>
       <c r="N89" s="3">
+        <v>300</v>
+      </c>
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4184,19 +4405,19 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4213,8 +4434,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E94" s="3">
         <v>1300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>4000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4403,7 +4637,7 @@
         <v>-100</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>7700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-16500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>30500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1700</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>800</v>
+      </c>
+      <c r="E102" s="3">
         <v>2900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>12100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-24000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>26800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>900</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSVB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSVB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>MSVB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -748,10 +752,10 @@
         <v>1800</v>
       </c>
       <c r="E8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F8" s="3">
         <v>1900</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2000</v>
       </c>
       <c r="G8" s="3">
         <v>2000</v>
@@ -766,16 +770,16 @@
         <v>2000</v>
       </c>
       <c r="K8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L8" s="3">
         <v>1900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1700</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1600</v>
       </c>
       <c r="O8" s="3">
         <v>1600</v>
@@ -786,11 +790,14 @@
       <c r="Q8" s="3">
         <v>1600</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1152,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1135,7 +1162,7 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
@@ -1144,16 +1171,16 @@
         <v>300</v>
       </c>
       <c r="H17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
@@ -1162,22 +1189,25 @@
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>-200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>-100</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1188,46 +1218,49 @@
         <v>1600</v>
       </c>
       <c r="F18" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G18" s="3">
         <v>1700</v>
       </c>
       <c r="H18" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I18" s="3">
         <v>1800</v>
       </c>
       <c r="J18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K18" s="3">
         <v>2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1800</v>
-      </c>
-      <c r="O18" s="3">
-        <v>1400</v>
       </c>
       <c r="P18" s="3">
         <v>1400</v>
       </c>
       <c r="Q18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R18" s="3">
         <v>1700</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,28 +1279,29 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="E20" s="3">
         <v>-1200</v>
       </c>
       <c r="F20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1400</v>
       </c>
       <c r="J20" s="3">
         <v>-1400</v>
@@ -1276,10 +1310,10 @@
         <v>-1400</v>
       </c>
       <c r="L20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-1100</v>
       </c>
       <c r="N20" s="3">
         <v>-1100</v>
@@ -1288,42 +1322,45 @@
         <v>-1100</v>
       </c>
       <c r="P20" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>600</v>
-      </c>
-      <c r="K21" s="3">
-        <v>400</v>
       </c>
       <c r="L21" s="3">
         <v>400</v>
@@ -1332,22 +1369,25 @@
         <v>400</v>
       </c>
       <c r="N21" s="3">
+        <v>400</v>
+      </c>
+      <c r="O21" s="3">
         <v>700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>800</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,58 +1436,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E23" s="3">
         <v>400</v>
       </c>
       <c r="F23" s="3">
+        <v>400</v>
+      </c>
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>400</v>
       </c>
       <c r="M23" s="3">
         <v>400</v>
       </c>
       <c r="N23" s="3">
+        <v>400</v>
+      </c>
+      <c r="O23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>700</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1455,11 +1501,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1467,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
@@ -1482,22 +1528,25 @@
         <v>100</v>
       </c>
       <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
         <v>500</v>
-      </c>
-      <c r="O24" s="3">
-        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
       </c>
       <c r="Q24" s="3">
+        <v>100</v>
+      </c>
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,8 +1595,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1555,25 +1607,25 @@
         <v>300</v>
       </c>
       <c r="E26" s="3">
+        <v>300</v>
+      </c>
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>300</v>
       </c>
       <c r="L26" s="3">
         <v>300</v>
@@ -1582,22 +1634,25 @@
         <v>300</v>
       </c>
       <c r="N26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O26" s="3">
         <v>200</v>
       </c>
       <c r="P26" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>500</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1605,25 +1660,25 @@
         <v>300</v>
       </c>
       <c r="E27" s="3">
+        <v>300</v>
+      </c>
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>300</v>
       </c>
       <c r="L27" s="3">
         <v>300</v>
@@ -1632,22 +1687,25 @@
         <v>300</v>
       </c>
       <c r="N27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O27" s="3">
         <v>200</v>
       </c>
       <c r="P27" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>500</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,28 +1913,31 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E32" s="3">
         <v>1200</v>
       </c>
       <c r="F32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1400</v>
       </c>
       <c r="J32" s="3">
         <v>1400</v>
@@ -1876,10 +1946,10 @@
         <v>1400</v>
       </c>
       <c r="L32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M32" s="3">
         <v>1300</v>
-      </c>
-      <c r="M32" s="3">
-        <v>1100</v>
       </c>
       <c r="N32" s="3">
         <v>1100</v>
@@ -1888,16 +1958,19 @@
         <v>1100</v>
       </c>
       <c r="P32" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1905,25 +1978,25 @@
         <v>300</v>
       </c>
       <c r="E33" s="3">
+        <v>300</v>
+      </c>
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>300</v>
       </c>
       <c r="L33" s="3">
         <v>300</v>
@@ -1932,22 +2005,25 @@
         <v>300</v>
       </c>
       <c r="N33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O33" s="3">
         <v>200</v>
       </c>
       <c r="P33" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,8 +2072,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2005,25 +2084,25 @@
         <v>300</v>
       </c>
       <c r="E35" s="3">
+        <v>300</v>
+      </c>
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>300</v>
       </c>
       <c r="L35" s="3">
         <v>300</v>
@@ -2032,77 +2111,83 @@
         <v>300</v>
       </c>
       <c r="N35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O35" s="3">
         <v>200</v>
       </c>
       <c r="P35" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,25 +2227,26 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1300</v>
-      </c>
-      <c r="H41" s="3">
-        <v>900</v>
       </c>
       <c r="I41" s="3">
         <v>900</v>
@@ -2168,17 +2255,17 @@
         <v>900</v>
       </c>
       <c r="K41" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L41" s="3">
         <v>800</v>
       </c>
       <c r="M41" s="3">
+        <v>800</v>
+      </c>
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,44 +2278,47 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E42" s="3">
         <v>22000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>20400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>18000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>19400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>22000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>9900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>12600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>19100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>43100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>16400</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2437,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2391,8 +2490,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,8 +2543,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2500,7 +2608,7 @@
         <v>1800</v>
       </c>
       <c r="E48" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F48" s="3">
         <v>1900</v>
@@ -2521,13 +2629,13 @@
         <v>1900</v>
       </c>
       <c r="L48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="M48" s="3">
         <v>2000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
+      <c r="N48" s="3">
+        <v>2000</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,44 +2914,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>218300</v>
+      </c>
+      <c r="E54" s="3">
         <v>217500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>208300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>208400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>209100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>207700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>198700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>200700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>199400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>214800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>184000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2895,8 +3026,8 @@
       <c r="F57" s="3">
         <v>0</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2910,8 +3041,8 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -2931,8 +3062,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,16 +3115,19 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
-      </c>
-      <c r="E59" s="3">
-        <v>600</v>
       </c>
       <c r="F59" s="3">
         <v>600</v>
@@ -3005,19 +3142,19 @@
         <v>600</v>
       </c>
       <c r="J59" s="3">
+        <v>600</v>
+      </c>
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>500</v>
       </c>
       <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
+      <c r="N59" s="3">
+        <v>500</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
@@ -3031,8 +3168,11 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3081,8 +3221,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,44 +3486,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>169400</v>
+      </c>
+      <c r="E66" s="3">
         <v>166600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>158800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>157600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>158200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>156900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>149100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>151800</v>
       </c>
       <c r="K66" s="3">
         <v>151800</v>
       </c>
       <c r="L66" s="3">
+        <v>151800</v>
+      </c>
+      <c r="M66" s="3">
         <v>190600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>160100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,8 +3539,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,44 +3772,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E72" s="3">
         <v>22000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>21700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>21400</v>
-      </c>
-      <c r="G72" s="3">
-        <v>21200</v>
       </c>
       <c r="H72" s="3">
         <v>21200</v>
       </c>
       <c r="I72" s="3">
+        <v>21200</v>
+      </c>
+      <c r="J72" s="3">
         <v>21000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>20700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19600</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3825,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,44 +3984,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E76" s="3">
         <v>50900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>49500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>50800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>50900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>50800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>49600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>48800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>47700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3851,8 +4037,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,63 +4090,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3965,25 +4160,25 @@
         <v>300</v>
       </c>
       <c r="E81" s="3">
+        <v>300</v>
+      </c>
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>300</v>
       </c>
       <c r="L81" s="3">
         <v>300</v>
@@ -3992,22 +4187,25 @@
         <v>300</v>
       </c>
       <c r="N81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O81" s="3">
         <v>200</v>
       </c>
       <c r="P81" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4038,11 +4237,11 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -4067,8 +4266,8 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4540,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4335,49 +4552,52 @@
         <v>300</v>
       </c>
       <c r="E89" s="3">
+        <v>300</v>
+      </c>
+      <c r="F89" s="3">
         <v>800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
-      </c>
-      <c r="M89" s="3">
-        <v>300</v>
       </c>
       <c r="N89" s="3">
         <v>300</v>
       </c>
       <c r="O89" s="3">
+        <v>300</v>
+      </c>
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4408,19 +4629,19 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4437,8 +4658,8 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>4000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4640,7 +4874,7 @@
         <v>-100</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>5600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>7700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-16500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>30500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1700</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E102" s="3">
         <v>800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>12100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-24000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>26800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>900</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSVB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSVB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>MSVB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,110 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F8" s="3">
         <v>1800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2000</v>
       </c>
       <c r="I8" s="3">
         <v>2000</v>
@@ -773,19 +780,19 @@
         <v>2000</v>
       </c>
       <c r="L8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N8" s="3">
         <v>1900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1700</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1600</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1600</v>
       </c>
       <c r="Q8" s="3">
         <v>1600</v>
@@ -793,11 +800,17 @@
       <c r="R8" s="3">
         <v>1600</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,8 +862,14 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +921,14 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1121,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,8 +1204,10 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1165,102 +1218,114 @@
         <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
         <v>-100</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E18" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F18" s="3">
         <v>1600</v>
       </c>
       <c r="G18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I18" s="3">
         <v>1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1700</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1345,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1289,105 +1356,117 @@
         <v>-1300</v>
       </c>
       <c r="E20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1600</v>
       </c>
       <c r="I20" s="3">
         <v>-1500</v>
       </c>
       <c r="J20" s="3">
-        <v>-1400</v>
+        <v>-1600</v>
       </c>
       <c r="K20" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="L20" s="3">
         <v>-1400</v>
       </c>
       <c r="M20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1100</v>
       </c>
       <c r="P20" s="3">
         <v>-1100</v>
       </c>
       <c r="Q20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-1000</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>600</v>
-      </c>
-      <c r="L21" s="3">
-        <v>400</v>
-      </c>
-      <c r="M21" s="3">
-        <v>400</v>
       </c>
       <c r="N21" s="3">
         <v>400</v>
       </c>
       <c r="O21" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
+      <c r="Q21" s="3">
+        <v>700</v>
       </c>
       <c r="R21" s="3">
+        <v>400</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>800</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,61 +1518,73 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>700</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1504,22 +1595,22 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
@@ -1531,22 +1622,28 @@
         <v>100</v>
       </c>
       <c r="O24" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
       </c>
       <c r="Q24" s="3">
+        <v>500</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
+        <v>100</v>
+      </c>
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>300</v>
       </c>
       <c r="N26" s="3">
         <v>300</v>
       </c>
       <c r="O26" s="3">
+        <v>300</v>
+      </c>
+      <c r="P26" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>500</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>300</v>
       </c>
       <c r="N27" s="3">
         <v>300</v>
       </c>
       <c r="O27" s="3">
+        <v>300</v>
+      </c>
+      <c r="P27" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>500</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +2049,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1925,105 +2064,117 @@
         <v>1300</v>
       </c>
       <c r="E32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1600</v>
       </c>
       <c r="I32" s="3">
         <v>1500</v>
       </c>
       <c r="J32" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K32" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L32" s="3">
         <v>1400</v>
       </c>
       <c r="M32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O32" s="3">
         <v>1300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1100</v>
       </c>
       <c r="P32" s="3">
         <v>1100</v>
       </c>
       <c r="Q32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>1000</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>300</v>
       </c>
       <c r="N33" s="3">
         <v>300</v>
       </c>
       <c r="O33" s="3">
+        <v>300</v>
+      </c>
+      <c r="P33" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>500</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>300</v>
       </c>
       <c r="N35" s="3">
         <v>300</v>
       </c>
       <c r="O35" s="3">
+        <v>300</v>
+      </c>
+      <c r="P35" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>500</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,50 +2399,52 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F41" s="3">
         <v>1900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1300</v>
-      </c>
-      <c r="I41" s="3">
-        <v>900</v>
-      </c>
-      <c r="J41" s="3">
-        <v>900</v>
       </c>
       <c r="K41" s="3">
         <v>900</v>
       </c>
       <c r="L41" s="3">
+        <v>900</v>
+      </c>
+      <c r="M41" s="3">
+        <v>900</v>
+      </c>
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2281,50 +2454,56 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F42" s="3">
         <v>14300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>22000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>20400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>18000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>19400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>22000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>9900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>12600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>19100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>43100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>16400</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,8 +2513,14 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2387,8 +2572,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,8 +2631,14 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2493,8 +2690,14 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2546,8 +2749,14 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,22 +2808,28 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F48" s="3">
         <v>1800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1800</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1900</v>
       </c>
       <c r="H48" s="3">
         <v>1900</v>
@@ -2632,17 +2847,17 @@
         <v>1900</v>
       </c>
       <c r="M48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O48" s="3">
         <v>2000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,8 +2867,14 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2864,8 +3103,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,50 +3162,56 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>244900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>235400</v>
+      </c>
+      <c r="F54" s="3">
         <v>218300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>217500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>208300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>208400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>209100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>207700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>198700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>200700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>199400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>214800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>184000</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2970,8 +3221,14 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,8 +3271,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3029,11 +3290,11 @@
       <c r="G57" s="3">
         <v>0</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -3044,11 +3305,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -3065,8 +3326,14 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3118,22 +3385,28 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>600</v>
       </c>
       <c r="H59" s="3">
         <v>600</v>
@@ -3145,23 +3418,23 @@
         <v>600</v>
       </c>
       <c r="K59" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L59" s="3">
         <v>600</v>
       </c>
       <c r="M59" s="3">
+        <v>700</v>
+      </c>
+      <c r="N59" s="3">
+        <v>600</v>
+      </c>
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3171,8 +3444,14 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3224,8 +3503,14 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,8 +3562,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3330,8 +3621,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,50 +3798,56 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>186400</v>
+      </c>
+      <c r="F66" s="3">
         <v>169400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>166600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>158800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>157600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>158200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>156900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>149100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>151800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>151800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>190600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>160100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3542,8 +3857,14 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,50 +4116,56 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>22300</v>
+      </c>
+      <c r="F72" s="3">
         <v>22200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>22000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>21700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>21400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>21200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>21200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>21000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>20700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>20200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>19900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>19600</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3828,8 +4175,14 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,50 +4352,56 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>49000</v>
+      </c>
+      <c r="F76" s="3">
         <v>48800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>50900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>49500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>50800</v>
-      </c>
-      <c r="H76" s="3">
-        <v>50900</v>
       </c>
       <c r="I76" s="3">
         <v>50800</v>
       </c>
       <c r="J76" s="3">
+        <v>50900</v>
+      </c>
+      <c r="K76" s="3">
+        <v>50800</v>
+      </c>
+      <c r="L76" s="3">
         <v>49600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>48800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>47700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>24100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>23900</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4040,8 +4411,14 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>300</v>
       </c>
       <c r="N81" s="3">
         <v>300</v>
       </c>
       <c r="O81" s="3">
+        <v>300</v>
+      </c>
+      <c r="P81" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>500</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4240,14 +4637,14 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -4269,17 +4666,23 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>500</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>800</v>
-      </c>
-      <c r="G89" s="3">
-        <v>400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>300</v>
       </c>
       <c r="I89" s="3">
         <v>400</v>
       </c>
       <c r="J89" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K89" s="3">
         <v>400</v>
       </c>
       <c r="L89" s="3">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="M89" s="3">
         <v>400</v>
       </c>
       <c r="N89" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O89" s="3">
+        <v>400</v>
+      </c>
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,37 +5056,39 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4661,17 +5102,23 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-8000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-5100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>1300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-3600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>4000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-6700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-8800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-4100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-4200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>2300</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4877,10 +5344,10 @@
         <v>-100</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M96" s="3">
         <v>0</v>
@@ -4903,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5547,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>5600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>7700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-16500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>30500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>7700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-7100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>2900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>12100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-6400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-24000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>26800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>8900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-3400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>900</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSVB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSVB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>MSVB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -762,16 +766,16 @@
         <v>1900</v>
       </c>
       <c r="F8" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G8" s="3">
         <v>1800</v>
       </c>
       <c r="H8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I8" s="3">
         <v>1900</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2000</v>
       </c>
       <c r="J8" s="3">
         <v>2000</v>
@@ -786,16 +790,16 @@
         <v>2000</v>
       </c>
       <c r="N8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O8" s="3">
         <v>1900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1600</v>
       </c>
       <c r="R8" s="3">
         <v>1600</v>
@@ -806,11 +810,14 @@
       <c r="T8" s="3">
         <v>1600</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,8 +1232,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1224,7 +1251,7 @@
         <v>200</v>
       </c>
       <c r="H17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
@@ -1233,16 +1260,16 @@
         <v>300</v>
       </c>
       <c r="K17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
@@ -1251,22 +1278,25 @@
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>-200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
       <c r="T17" s="3">
+        <v>200</v>
+      </c>
+      <c r="U17" s="3">
         <v>-100</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1277,7 +1307,7 @@
         <v>1700</v>
       </c>
       <c r="F18" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G18" s="3">
         <v>1600</v>
@@ -1286,46 +1316,49 @@
         <v>1600</v>
       </c>
       <c r="I18" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J18" s="3">
         <v>1700</v>
       </c>
       <c r="K18" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="L18" s="3">
         <v>1800</v>
       </c>
       <c r="M18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N18" s="3">
         <v>2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1800</v>
-      </c>
-      <c r="R18" s="3">
-        <v>1400</v>
       </c>
       <c r="S18" s="3">
         <v>1400</v>
       </c>
       <c r="T18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U18" s="3">
         <v>1700</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,28 +1390,28 @@
         <v>-1300</v>
       </c>
       <c r="E20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1200</v>
       </c>
       <c r="H20" s="3">
         <v>-1200</v>
       </c>
       <c r="I20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1400</v>
       </c>
       <c r="M20" s="3">
         <v>-1400</v>
@@ -1386,10 +1420,10 @@
         <v>-1400</v>
       </c>
       <c r="O20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-1100</v>
       </c>
       <c r="Q20" s="3">
         <v>-1100</v>
@@ -1398,16 +1432,19 @@
         <v>-1100</v>
       </c>
       <c r="S20" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="T20" s="3">
         <v>-1000</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1415,34 +1452,34 @@
         <v>400</v>
       </c>
       <c r="E21" s="3">
+        <v>400</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>600</v>
-      </c>
-      <c r="N21" s="3">
-        <v>400</v>
       </c>
       <c r="O21" s="3">
         <v>400</v>
@@ -1451,22 +1488,25 @@
         <v>400</v>
       </c>
       <c r="Q21" s="3">
+        <v>400</v>
+      </c>
+      <c r="R21" s="3">
         <v>700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3">
         <v>800</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,8 +1564,11 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1533,58 +1576,61 @@
         <v>400</v>
       </c>
       <c r="E23" s="3">
+        <v>400</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>400</v>
       </c>
       <c r="H23" s="3">
         <v>400</v>
       </c>
       <c r="I23" s="3">
+        <v>400</v>
+      </c>
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>400</v>
       </c>
       <c r="P23" s="3">
         <v>400</v>
       </c>
       <c r="Q23" s="3">
+        <v>400</v>
+      </c>
+      <c r="R23" s="3">
         <v>700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>700</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1601,11 +1647,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1613,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
@@ -1628,22 +1674,25 @@
         <v>100</v>
       </c>
       <c r="Q24" s="3">
+        <v>100</v>
+      </c>
+      <c r="R24" s="3">
         <v>500</v>
-      </c>
-      <c r="R24" s="3">
-        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>100</v>
       </c>
       <c r="T24" s="3">
+        <v>100</v>
+      </c>
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,8 +1750,11 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1710,34 +1762,34 @@
         <v>400</v>
       </c>
       <c r="E26" s="3">
+        <v>400</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>300</v>
       </c>
       <c r="G26" s="3">
         <v>300</v>
       </c>
       <c r="H26" s="3">
+        <v>300</v>
+      </c>
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>500</v>
-      </c>
-      <c r="N26" s="3">
-        <v>300</v>
       </c>
       <c r="O26" s="3">
         <v>300</v>
@@ -1746,22 +1798,25 @@
         <v>300</v>
       </c>
       <c r="Q26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R26" s="3">
         <v>200</v>
       </c>
       <c r="S26" s="3">
+        <v>200</v>
+      </c>
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>500</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1769,34 +1824,34 @@
         <v>400</v>
       </c>
       <c r="E27" s="3">
+        <v>400</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>300</v>
       </c>
       <c r="G27" s="3">
         <v>300</v>
       </c>
       <c r="H27" s="3">
+        <v>300</v>
+      </c>
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>500</v>
-      </c>
-      <c r="N27" s="3">
-        <v>300</v>
       </c>
       <c r="O27" s="3">
         <v>300</v>
@@ -1805,22 +1860,25 @@
         <v>300</v>
       </c>
       <c r="Q27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R27" s="3">
         <v>200</v>
       </c>
       <c r="S27" s="3">
+        <v>200</v>
+      </c>
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>500</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,28 +2134,28 @@
         <v>1300</v>
       </c>
       <c r="E32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1200</v>
       </c>
       <c r="H32" s="3">
         <v>1200</v>
       </c>
       <c r="I32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J32" s="3">
         <v>1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1500</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1400</v>
       </c>
       <c r="M32" s="3">
         <v>1400</v>
@@ -2094,10 +2164,10 @@
         <v>1400</v>
       </c>
       <c r="O32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P32" s="3">
         <v>1300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1100</v>
       </c>
       <c r="Q32" s="3">
         <v>1100</v>
@@ -2106,16 +2176,19 @@
         <v>1100</v>
       </c>
       <c r="S32" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T32" s="3">
         <v>1000</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2123,34 +2196,34 @@
         <v>400</v>
       </c>
       <c r="E33" s="3">
+        <v>400</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>300</v>
       </c>
       <c r="G33" s="3">
         <v>300</v>
       </c>
       <c r="H33" s="3">
+        <v>300</v>
+      </c>
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
-      </c>
-      <c r="N33" s="3">
-        <v>300</v>
       </c>
       <c r="O33" s="3">
         <v>300</v>
@@ -2159,22 +2232,25 @@
         <v>300</v>
       </c>
       <c r="Q33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R33" s="3">
         <v>200</v>
       </c>
       <c r="S33" s="3">
+        <v>200</v>
+      </c>
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>500</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,8 +2308,11 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2241,34 +2320,34 @@
         <v>400</v>
       </c>
       <c r="E35" s="3">
+        <v>400</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>300</v>
       </c>
       <c r="G35" s="3">
         <v>300</v>
       </c>
       <c r="H35" s="3">
+        <v>300</v>
+      </c>
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
-      </c>
-      <c r="N35" s="3">
-        <v>300</v>
       </c>
       <c r="O35" s="3">
         <v>300</v>
@@ -2277,86 +2356,92 @@
         <v>300</v>
       </c>
       <c r="Q35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R35" s="3">
         <v>200</v>
       </c>
       <c r="S35" s="3">
+        <v>200</v>
+      </c>
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>500</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,34 +2487,35 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="E41" s="3">
         <v>1800</v>
       </c>
       <c r="F41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G41" s="3">
         <v>1900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1300</v>
-      </c>
-      <c r="K41" s="3">
-        <v>900</v>
       </c>
       <c r="L41" s="3">
         <v>900</v>
@@ -2437,17 +2524,17 @@
         <v>900</v>
       </c>
       <c r="N41" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="O41" s="3">
         <v>800</v>
       </c>
       <c r="P41" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2460,53 +2547,56 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E42" s="3">
         <v>22800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>8700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>14300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>22000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>20400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>18000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>19400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>22000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>12600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>19100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>43100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>16400</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2519,8 +2609,11 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2733,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2795,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,8 +2857,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +2919,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2823,16 +2931,16 @@
         <v>2000</v>
       </c>
       <c r="E48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1900</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1800</v>
       </c>
       <c r="G48" s="3">
         <v>1800</v>
       </c>
       <c r="H48" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I48" s="3">
         <v>1900</v>
@@ -2853,13 +2961,13 @@
         <v>1900</v>
       </c>
       <c r="O48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="P48" s="3">
         <v>2000</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
+      <c r="Q48" s="3">
+        <v>2000</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,53 +3291,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>249200</v>
+      </c>
+      <c r="E54" s="3">
         <v>244900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>235400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>218300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>217500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>208300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>208400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>209100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>207700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>198700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>200700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>199400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>214800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>184000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3403,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3296,8 +3427,8 @@
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -3311,8 +3442,8 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -3332,8 +3463,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,25 +3525,28 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>600</v>
       </c>
       <c r="I59" s="3">
         <v>600</v>
@@ -3424,19 +3561,19 @@
         <v>600</v>
       </c>
       <c r="M59" s="3">
+        <v>600</v>
+      </c>
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
-      </c>
-      <c r="O59" s="3">
-        <v>500</v>
       </c>
       <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
+      <c r="Q59" s="3">
+        <v>500</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
@@ -3450,8 +3587,11 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,8 +3649,11 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,53 +3959,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E66" s="3">
         <v>197000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>186400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>169400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>166600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>158800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>157600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>158200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>156900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>149100</v>
-      </c>
-      <c r="M66" s="3">
-        <v>151800</v>
       </c>
       <c r="N66" s="3">
         <v>151800</v>
       </c>
       <c r="O66" s="3">
+        <v>151800</v>
+      </c>
+      <c r="P66" s="3">
         <v>190600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>160100</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,53 +4293,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E72" s="3">
         <v>22600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>22300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>22200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>22000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>21700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>21400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>21200</v>
       </c>
       <c r="K72" s="3">
         <v>21200</v>
       </c>
       <c r="L72" s="3">
+        <v>21200</v>
+      </c>
+      <c r="M72" s="3">
         <v>21000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19600</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,53 +4541,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E76" s="3">
         <v>47900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>49000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>48800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>50900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>49500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>50800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>50900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>50800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>49600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>48800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>47700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>23900</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4417,8 +4603,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,72 +4665,78 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4549,34 +4744,34 @@
         <v>400</v>
       </c>
       <c r="E81" s="3">
+        <v>400</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>300</v>
       </c>
       <c r="G81" s="3">
         <v>300</v>
       </c>
       <c r="H81" s="3">
+        <v>300</v>
+      </c>
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
-      </c>
-      <c r="N81" s="3">
-        <v>300</v>
       </c>
       <c r="O81" s="3">
         <v>300</v>
@@ -4585,22 +4780,25 @@
         <v>300</v>
       </c>
       <c r="Q81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R81" s="3">
         <v>200</v>
       </c>
       <c r="S81" s="3">
+        <v>200</v>
+      </c>
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>500</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4643,11 +4842,11 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
@@ -4672,8 +4871,8 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>500</v>
+      </c>
+      <c r="E89" s="3">
         <v>600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>500</v>
-      </c>
-      <c r="F89" s="3">
-        <v>300</v>
       </c>
       <c r="G89" s="3">
         <v>300</v>
       </c>
       <c r="H89" s="3">
+        <v>300</v>
+      </c>
+      <c r="I89" s="3">
         <v>800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
-      </c>
-      <c r="P89" s="3">
-        <v>300</v>
       </c>
       <c r="Q89" s="3">
         <v>300</v>
       </c>
       <c r="R89" s="3">
+        <v>300</v>
+      </c>
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,19 +5278,20 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5079,19 +5300,19 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5108,8 +5329,8 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E94" s="3">
         <v>2500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-22100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>4000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2300</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5350,7 +5584,7 @@
         <v>-100</v>
       </c>
       <c r="M96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E100" s="3">
         <v>11000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>15700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-16500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>30500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>7700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1700</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E102" s="3">
         <v>14100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-24000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>26800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>8900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>900</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSVB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSVB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>MSVB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,101 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -769,16 +773,16 @@
         <v>1900</v>
       </c>
       <c r="G8" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H8" s="3">
         <v>1800</v>
       </c>
       <c r="I8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J8" s="3">
         <v>1900</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2000</v>
       </c>
       <c r="K8" s="3">
         <v>2000</v>
@@ -793,16 +797,16 @@
         <v>2000</v>
       </c>
       <c r="O8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P8" s="3">
         <v>1900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1700</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1600</v>
       </c>
       <c r="S8" s="3">
         <v>1600</v>
@@ -813,11 +817,14 @@
       <c r="U8" s="3">
         <v>1600</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +885,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,8 +1259,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1254,7 +1281,7 @@
         <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
@@ -1263,16 +1290,16 @@
         <v>300</v>
       </c>
       <c r="L17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
@@ -1281,22 +1308,25 @@
         <v>200</v>
       </c>
       <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>-200</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
       </c>
       <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
         <v>-100</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1310,7 +1340,7 @@
         <v>1700</v>
       </c>
       <c r="G18" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="H18" s="3">
         <v>1600</v>
@@ -1319,46 +1349,49 @@
         <v>1600</v>
       </c>
       <c r="J18" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K18" s="3">
         <v>1700</v>
       </c>
       <c r="L18" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="M18" s="3">
         <v>1800</v>
       </c>
       <c r="N18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O18" s="3">
         <v>2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1800</v>
-      </c>
-      <c r="S18" s="3">
-        <v>1400</v>
       </c>
       <c r="T18" s="3">
         <v>1400</v>
       </c>
       <c r="U18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V18" s="3">
         <v>1700</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,40 +1414,41 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="E20" s="3">
         <v>-1300</v>
       </c>
       <c r="F20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1200</v>
       </c>
       <c r="I20" s="3">
         <v>-1200</v>
       </c>
       <c r="J20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-1400</v>
       </c>
       <c r="N20" s="3">
         <v>-1400</v>
@@ -1423,10 +1457,10 @@
         <v>-1400</v>
       </c>
       <c r="P20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-1100</v>
       </c>
       <c r="R20" s="3">
         <v>-1100</v>
@@ -1435,54 +1469,57 @@
         <v>-1100</v>
       </c>
       <c r="T20" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="U20" s="3">
         <v>-1000</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E21" s="3">
         <v>400</v>
       </c>
       <c r="F21" s="3">
+        <v>400</v>
+      </c>
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>600</v>
-      </c>
-      <c r="O21" s="3">
-        <v>400</v>
       </c>
       <c r="P21" s="3">
         <v>400</v>
@@ -1491,22 +1528,25 @@
         <v>400</v>
       </c>
       <c r="R21" s="3">
+        <v>400</v>
+      </c>
+      <c r="S21" s="3">
         <v>700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>400</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3">
         <v>800</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,70 +1607,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E23" s="3">
         <v>400</v>
       </c>
       <c r="F23" s="3">
+        <v>400</v>
+      </c>
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>400</v>
       </c>
       <c r="I23" s="3">
         <v>400</v>
       </c>
       <c r="J23" s="3">
+        <v>400</v>
+      </c>
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>400</v>
       </c>
       <c r="Q23" s="3">
         <v>400</v>
       </c>
       <c r="R23" s="3">
+        <v>400</v>
+      </c>
+      <c r="S23" s="3">
         <v>700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>700</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1650,11 +1696,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1662,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
@@ -1677,22 +1723,25 @@
         <v>100</v>
       </c>
       <c r="R24" s="3">
+        <v>100</v>
+      </c>
+      <c r="S24" s="3">
         <v>500</v>
-      </c>
-      <c r="S24" s="3">
-        <v>100</v>
       </c>
       <c r="T24" s="3">
         <v>100</v>
       </c>
       <c r="U24" s="3">
+        <v>100</v>
+      </c>
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,46 +1802,49 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E26" s="3">
         <v>400</v>
       </c>
       <c r="F26" s="3">
+        <v>400</v>
+      </c>
+      <c r="G26" s="3">
         <v>200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>300</v>
       </c>
       <c r="H26" s="3">
         <v>300</v>
       </c>
       <c r="I26" s="3">
+        <v>300</v>
+      </c>
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>500</v>
-      </c>
-      <c r="O26" s="3">
-        <v>300</v>
       </c>
       <c r="P26" s="3">
         <v>300</v>
@@ -1801,60 +1853,63 @@
         <v>300</v>
       </c>
       <c r="R26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S26" s="3">
         <v>200</v>
       </c>
       <c r="T26" s="3">
+        <v>200</v>
+      </c>
+      <c r="U26" s="3">
         <v>300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>500</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E27" s="3">
         <v>400</v>
       </c>
       <c r="F27" s="3">
+        <v>400</v>
+      </c>
+      <c r="G27" s="3">
         <v>200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>300</v>
       </c>
       <c r="H27" s="3">
         <v>300</v>
       </c>
       <c r="I27" s="3">
+        <v>300</v>
+      </c>
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>500</v>
-      </c>
-      <c r="O27" s="3">
-        <v>300</v>
       </c>
       <c r="P27" s="3">
         <v>300</v>
@@ -1863,22 +1918,25 @@
         <v>300</v>
       </c>
       <c r="R27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S27" s="3">
         <v>200</v>
       </c>
       <c r="T27" s="3">
+        <v>200</v>
+      </c>
+      <c r="U27" s="3">
         <v>300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>500</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,40 +2192,43 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E32" s="3">
         <v>1300</v>
       </c>
       <c r="F32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1200</v>
       </c>
       <c r="I32" s="3">
         <v>1200</v>
       </c>
       <c r="J32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K32" s="3">
         <v>1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1500</v>
-      </c>
-      <c r="M32" s="3">
-        <v>1400</v>
       </c>
       <c r="N32" s="3">
         <v>1400</v>
@@ -2167,10 +2237,10 @@
         <v>1400</v>
       </c>
       <c r="P32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>1100</v>
       </c>
       <c r="R32" s="3">
         <v>1100</v>
@@ -2179,54 +2249,57 @@
         <v>1100</v>
       </c>
       <c r="T32" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="U32" s="3">
         <v>1000</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E33" s="3">
         <v>400</v>
       </c>
       <c r="F33" s="3">
+        <v>400</v>
+      </c>
+      <c r="G33" s="3">
         <v>200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>300</v>
       </c>
       <c r="H33" s="3">
         <v>300</v>
       </c>
       <c r="I33" s="3">
+        <v>300</v>
+      </c>
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>500</v>
-      </c>
-      <c r="O33" s="3">
-        <v>300</v>
       </c>
       <c r="P33" s="3">
         <v>300</v>
@@ -2235,22 +2308,25 @@
         <v>300</v>
       </c>
       <c r="R33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S33" s="3">
         <v>200</v>
       </c>
       <c r="T33" s="3">
+        <v>200</v>
+      </c>
+      <c r="U33" s="3">
         <v>300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>500</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,46 +2387,49 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E35" s="3">
         <v>400</v>
       </c>
       <c r="F35" s="3">
+        <v>400</v>
+      </c>
+      <c r="G35" s="3">
         <v>200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>300</v>
       </c>
       <c r="H35" s="3">
         <v>300</v>
       </c>
       <c r="I35" s="3">
+        <v>300</v>
+      </c>
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>500</v>
-      </c>
-      <c r="O35" s="3">
-        <v>300</v>
       </c>
       <c r="P35" s="3">
         <v>300</v>
@@ -2359,89 +2438,95 @@
         <v>300</v>
       </c>
       <c r="R35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S35" s="3">
         <v>200</v>
       </c>
       <c r="T35" s="3">
+        <v>200</v>
+      </c>
+      <c r="U35" s="3">
         <v>300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>500</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,37 +2574,38 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E41" s="3">
         <v>2400</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1800</v>
       </c>
       <c r="F41" s="3">
         <v>1800</v>
       </c>
       <c r="G41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H41" s="3">
         <v>1900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1300</v>
-      </c>
-      <c r="L41" s="3">
-        <v>900</v>
       </c>
       <c r="M41" s="3">
         <v>900</v>
@@ -2527,17 +2614,17 @@
         <v>900</v>
       </c>
       <c r="O41" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="P41" s="3">
         <v>800</v>
       </c>
       <c r="Q41" s="3">
+        <v>800</v>
+      </c>
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2550,56 +2637,59 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E42" s="3">
         <v>16900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>22800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>8700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>14300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>22000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>20400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>18000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>19400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>22000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>9900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>12600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>19100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>43100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>16400</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2612,8 +2702,11 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2674,8 +2767,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2832,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2798,8 +2897,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2860,8 +2962,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,28 +3027,31 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E48" s="3">
         <v>2000</v>
       </c>
       <c r="F48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G48" s="3">
         <v>1900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1800</v>
       </c>
       <c r="H48" s="3">
         <v>1800</v>
       </c>
       <c r="I48" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J48" s="3">
         <v>1900</v>
@@ -2964,13 +3072,13 @@
         <v>1900</v>
       </c>
       <c r="P48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="Q48" s="3">
         <v>2000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
+      <c r="R48" s="3">
+        <v>2000</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
@@ -2984,8 +3092,11 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,56 +3417,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>252300</v>
+      </c>
+      <c r="E54" s="3">
         <v>249200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>244900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>235400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>218300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>217500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>208300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>208400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>209100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>207700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>198700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>200700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>199400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>214800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>184000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3356,8 +3482,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3534,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3430,8 +3561,8 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
@@ -3445,8 +3576,8 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -3466,8 +3597,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3528,28 +3662,31 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>600</v>
       </c>
       <c r="J59" s="3">
         <v>600</v>
@@ -3564,19 +3701,19 @@
         <v>600</v>
       </c>
       <c r="N59" s="3">
+        <v>600</v>
+      </c>
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
-      </c>
-      <c r="P59" s="3">
-        <v>500</v>
       </c>
       <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
+      <c r="R59" s="3">
+        <v>500</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
@@ -3590,8 +3727,11 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3652,8 +3792,11 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,8 +3857,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,56 +4117,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E66" s="3">
         <v>200000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>197000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>186400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>169400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>166600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>158800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>157600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>158200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>156900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>149100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>151800</v>
       </c>
       <c r="O66" s="3">
         <v>151800</v>
       </c>
       <c r="P66" s="3">
+        <v>151800</v>
+      </c>
+      <c r="Q66" s="3">
         <v>190600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>160100</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4024,8 +4182,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,56 +4467,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E72" s="3">
         <v>22900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>22600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>22300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>22200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>22000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>21700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>21400</v>
-      </c>
-      <c r="K72" s="3">
-        <v>21200</v>
       </c>
       <c r="L72" s="3">
         <v>21200</v>
       </c>
       <c r="M72" s="3">
+        <v>21200</v>
+      </c>
+      <c r="N72" s="3">
         <v>21000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19600</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4358,8 +4532,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,56 +4727,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E76" s="3">
         <v>49100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>47900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>49000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>48800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>50900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>49500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>50800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>50900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>50800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>49600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>48800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>47700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>23900</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4606,8 +4792,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,113 +4857,119 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E81" s="3">
         <v>400</v>
       </c>
       <c r="F81" s="3">
+        <v>400</v>
+      </c>
+      <c r="G81" s="3">
         <v>200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>300</v>
       </c>
       <c r="H81" s="3">
         <v>300</v>
       </c>
       <c r="I81" s="3">
+        <v>300</v>
+      </c>
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>500</v>
-      </c>
-      <c r="O81" s="3">
-        <v>300</v>
       </c>
       <c r="P81" s="3">
         <v>300</v>
@@ -4783,22 +4978,25 @@
         <v>300</v>
       </c>
       <c r="R81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S81" s="3">
         <v>200</v>
       </c>
       <c r="T81" s="3">
+        <v>200</v>
+      </c>
+      <c r="U81" s="3">
         <v>300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>500</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4845,11 +5044,11 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -4874,8 +5073,8 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>700</v>
+      </c>
+      <c r="E89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>500</v>
-      </c>
-      <c r="G89" s="3">
-        <v>300</v>
       </c>
       <c r="H89" s="3">
         <v>300</v>
       </c>
       <c r="I89" s="3">
+        <v>300</v>
+      </c>
+      <c r="J89" s="3">
         <v>800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>400</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>300</v>
       </c>
       <c r="R89" s="3">
         <v>300</v>
       </c>
       <c r="S89" s="3">
+        <v>300</v>
+      </c>
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5288,13 +5509,13 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -5303,19 +5524,19 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5332,8 +5553,8 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-22100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2300</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5587,7 +5821,7 @@
         <v>-100</v>
       </c>
       <c r="N96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E100" s="3">
         <v>2600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>11000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>15700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-16500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>30500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>7700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1700</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>14100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-24000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>26800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>900</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSVB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSVB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>MSVB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,104 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,16 +779,16 @@
         <v>1900</v>
       </c>
       <c r="H8" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I8" s="3">
         <v>1800</v>
       </c>
       <c r="J8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1900</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2000</v>
       </c>
       <c r="L8" s="3">
         <v>2000</v>
@@ -800,16 +803,16 @@
         <v>2000</v>
       </c>
       <c r="P8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1700</v>
-      </c>
-      <c r="S8" s="3">
-        <v>1600</v>
       </c>
       <c r="T8" s="3">
         <v>1600</v>
@@ -820,11 +823,14 @@
       <c r="V8" s="3">
         <v>1600</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -888,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1173,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,13 +1285,14 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1284,7 +1310,7 @@
         <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
@@ -1293,16 +1319,16 @@
         <v>300</v>
       </c>
       <c r="M17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
@@ -1311,27 +1337,30 @@
         <v>200</v>
       </c>
       <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
         <v>-200</v>
-      </c>
-      <c r="T17" s="3">
-        <v>200</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
       </c>
       <c r="V17" s="3">
+        <v>200</v>
+      </c>
+      <c r="W17" s="3">
         <v>-100</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="E18" s="3">
         <v>1700</v>
@@ -1343,7 +1372,7 @@
         <v>1700</v>
       </c>
       <c r="H18" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="I18" s="3">
         <v>1600</v>
@@ -1352,46 +1381,49 @@
         <v>1600</v>
       </c>
       <c r="K18" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="L18" s="3">
         <v>1700</v>
       </c>
       <c r="M18" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="N18" s="3">
         <v>1800</v>
       </c>
       <c r="O18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P18" s="3">
         <v>2000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1800</v>
-      </c>
-      <c r="T18" s="3">
-        <v>1400</v>
       </c>
       <c r="U18" s="3">
         <v>1400</v>
       </c>
       <c r="V18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W18" s="3">
         <v>1700</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,43 +1447,44 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-1300</v>
       </c>
       <c r="F20" s="3">
         <v>-1300</v>
       </c>
       <c r="G20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1200</v>
       </c>
       <c r="J20" s="3">
         <v>-1200</v>
       </c>
       <c r="K20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1400</v>
       </c>
       <c r="O20" s="3">
         <v>-1400</v>
@@ -1460,10 +1493,10 @@
         <v>-1400</v>
       </c>
       <c r="Q20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-1100</v>
       </c>
       <c r="S20" s="3">
         <v>-1100</v>
@@ -1472,57 +1505,60 @@
         <v>-1100</v>
       </c>
       <c r="U20" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="V20" s="3">
         <v>-1000</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
         <v>500</v>
-      </c>
-      <c r="E21" s="3">
-        <v>400</v>
       </c>
       <c r="F21" s="3">
         <v>400</v>
       </c>
       <c r="G21" s="3">
+        <v>400</v>
+      </c>
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>600</v>
-      </c>
-      <c r="P21" s="3">
-        <v>400</v>
       </c>
       <c r="Q21" s="3">
         <v>400</v>
@@ -1531,22 +1567,25 @@
         <v>400</v>
       </c>
       <c r="S21" s="3">
+        <v>400</v>
+      </c>
+      <c r="T21" s="3">
         <v>700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>400</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3">
         <v>800</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1610,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
         <v>500</v>
-      </c>
-      <c r="E23" s="3">
-        <v>400</v>
       </c>
       <c r="F23" s="3">
         <v>400</v>
       </c>
       <c r="G23" s="3">
+        <v>400</v>
+      </c>
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>400</v>
       </c>
       <c r="J23" s="3">
         <v>400</v>
       </c>
       <c r="K23" s="3">
+        <v>400</v>
+      </c>
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>400</v>
       </c>
       <c r="R23" s="3">
         <v>400</v>
       </c>
       <c r="S23" s="3">
+        <v>400</v>
+      </c>
+      <c r="T23" s="3">
         <v>700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>700</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1699,11 +1744,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1711,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
@@ -1726,22 +1771,25 @@
         <v>100</v>
       </c>
       <c r="S24" s="3">
+        <v>100</v>
+      </c>
+      <c r="T24" s="3">
         <v>500</v>
-      </c>
-      <c r="T24" s="3">
-        <v>100</v>
       </c>
       <c r="U24" s="3">
         <v>100</v>
       </c>
       <c r="V24" s="3">
+        <v>100</v>
+      </c>
+      <c r="W24" s="3">
         <v>300</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,49 +1853,52 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
-      </c>
-      <c r="E26" s="3">
-        <v>400</v>
       </c>
       <c r="F26" s="3">
         <v>400</v>
       </c>
       <c r="G26" s="3">
+        <v>400</v>
+      </c>
+      <c r="H26" s="3">
         <v>200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>300</v>
       </c>
       <c r="I26" s="3">
         <v>300</v>
       </c>
       <c r="J26" s="3">
+        <v>300</v>
+      </c>
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>500</v>
-      </c>
-      <c r="P26" s="3">
-        <v>300</v>
       </c>
       <c r="Q26" s="3">
         <v>300</v>
@@ -1856,63 +1907,66 @@
         <v>300</v>
       </c>
       <c r="S26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T26" s="3">
         <v>200</v>
       </c>
       <c r="U26" s="3">
+        <v>200</v>
+      </c>
+      <c r="V26" s="3">
         <v>300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>500</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
-      </c>
-      <c r="E27" s="3">
-        <v>400</v>
       </c>
       <c r="F27" s="3">
         <v>400</v>
       </c>
       <c r="G27" s="3">
+        <v>400</v>
+      </c>
+      <c r="H27" s="3">
         <v>200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>300</v>
       </c>
       <c r="I27" s="3">
         <v>300</v>
       </c>
       <c r="J27" s="3">
+        <v>300</v>
+      </c>
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>500</v>
-      </c>
-      <c r="P27" s="3">
-        <v>300</v>
       </c>
       <c r="Q27" s="3">
         <v>300</v>
@@ -1921,22 +1975,25 @@
         <v>300</v>
       </c>
       <c r="S27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T27" s="3">
         <v>200</v>
       </c>
       <c r="U27" s="3">
+        <v>200</v>
+      </c>
+      <c r="V27" s="3">
         <v>300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>500</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,43 +2261,46 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>1200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1300</v>
       </c>
       <c r="F32" s="3">
         <v>1300</v>
       </c>
       <c r="G32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H32" s="3">
         <v>1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1200</v>
       </c>
       <c r="J32" s="3">
         <v>1200</v>
       </c>
       <c r="K32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L32" s="3">
         <v>1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1500</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1400</v>
       </c>
       <c r="O32" s="3">
         <v>1400</v>
@@ -2240,10 +2309,10 @@
         <v>1400</v>
       </c>
       <c r="Q32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R32" s="3">
         <v>1300</v>
-      </c>
-      <c r="R32" s="3">
-        <v>1100</v>
       </c>
       <c r="S32" s="3">
         <v>1100</v>
@@ -2252,57 +2321,60 @@
         <v>1100</v>
       </c>
       <c r="U32" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="V32" s="3">
         <v>1000</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
-      </c>
-      <c r="E33" s="3">
-        <v>400</v>
       </c>
       <c r="F33" s="3">
         <v>400</v>
       </c>
       <c r="G33" s="3">
+        <v>400</v>
+      </c>
+      <c r="H33" s="3">
         <v>200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>300</v>
       </c>
       <c r="I33" s="3">
         <v>300</v>
       </c>
       <c r="J33" s="3">
+        <v>300</v>
+      </c>
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
-      </c>
-      <c r="P33" s="3">
-        <v>300</v>
       </c>
       <c r="Q33" s="3">
         <v>300</v>
@@ -2311,22 +2383,25 @@
         <v>300</v>
       </c>
       <c r="S33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T33" s="3">
         <v>200</v>
       </c>
       <c r="U33" s="3">
+        <v>200</v>
+      </c>
+      <c r="V33" s="3">
         <v>300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>500</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,49 +2465,52 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
-      </c>
-      <c r="E35" s="3">
-        <v>400</v>
       </c>
       <c r="F35" s="3">
         <v>400</v>
       </c>
       <c r="G35" s="3">
+        <v>400</v>
+      </c>
+      <c r="H35" s="3">
         <v>200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>300</v>
       </c>
       <c r="I35" s="3">
         <v>300</v>
       </c>
       <c r="J35" s="3">
+        <v>300</v>
+      </c>
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
-      </c>
-      <c r="P35" s="3">
-        <v>300</v>
       </c>
       <c r="Q35" s="3">
         <v>300</v>
@@ -2441,92 +2519,98 @@
         <v>300</v>
       </c>
       <c r="S35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T35" s="3">
         <v>200</v>
       </c>
       <c r="U35" s="3">
+        <v>200</v>
+      </c>
+      <c r="V35" s="3">
         <v>300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>500</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,40 +2660,41 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2400</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1800</v>
       </c>
       <c r="G41" s="3">
         <v>1800</v>
       </c>
       <c r="H41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I41" s="3">
         <v>1900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1300</v>
-      </c>
-      <c r="M41" s="3">
-        <v>900</v>
       </c>
       <c r="N41" s="3">
         <v>900</v>
@@ -2617,17 +2703,17 @@
         <v>900</v>
       </c>
       <c r="P41" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q41" s="3">
         <v>800</v>
       </c>
       <c r="R41" s="3">
+        <v>800</v>
+      </c>
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2640,59 +2726,62 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E42" s="3">
         <v>17000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>16900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>22800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>8700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>14300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>22000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>20400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>18000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>19400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>22000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>12600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>19100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>43100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>16400</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,8 +2794,11 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2770,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2900,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2965,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,31 +3134,34 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1900</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2000</v>
       </c>
       <c r="F48" s="3">
         <v>2000</v>
       </c>
       <c r="G48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H48" s="3">
         <v>1900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1800</v>
       </c>
       <c r="I48" s="3">
         <v>1800</v>
       </c>
       <c r="J48" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K48" s="3">
         <v>1900</v>
@@ -3075,13 +3182,13 @@
         <v>1900</v>
       </c>
       <c r="Q48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="R48" s="3">
         <v>2000</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
+      <c r="S48" s="3">
+        <v>2000</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
@@ -3095,8 +3202,11 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3160,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3355,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,59 +3542,62 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>254300</v>
+      </c>
+      <c r="E54" s="3">
         <v>252300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>249200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>244900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>235400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>218300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>217500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>208300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>208400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>209100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>207700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>198700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>200700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>199400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>214800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>184000</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3485,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3564,8 +3694,8 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -3579,8 +3709,8 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -3600,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3665,8 +3798,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3674,22 +3810,22 @@
         <v>800</v>
       </c>
       <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>600</v>
       </c>
       <c r="K59" s="3">
         <v>600</v>
@@ -3704,19 +3840,19 @@
         <v>600</v>
       </c>
       <c r="O59" s="3">
+        <v>600</v>
+      </c>
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>500</v>
       </c>
       <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
+      <c r="S59" s="3">
+        <v>500</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
@@ -3730,8 +3866,11 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3795,8 +3934,11 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3860,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3925,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,59 +4274,62 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>207700</v>
+      </c>
+      <c r="E66" s="3">
         <v>206000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>200000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>197000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>186400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>169400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>166600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>158800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>157600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>158200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>156900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>149100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>151800</v>
       </c>
       <c r="P66" s="3">
         <v>151800</v>
       </c>
       <c r="Q66" s="3">
+        <v>151800</v>
+      </c>
+      <c r="R66" s="3">
         <v>190600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>160100</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4185,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,59 +4640,62 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E72" s="3">
         <v>23300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>22900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>22600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>22300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>22200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>22000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>21700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21400</v>
-      </c>
-      <c r="L72" s="3">
-        <v>21200</v>
       </c>
       <c r="M72" s="3">
         <v>21200</v>
       </c>
       <c r="N72" s="3">
+        <v>21200</v>
+      </c>
+      <c r="O72" s="3">
         <v>21000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19600</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4535,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,59 +4912,62 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E76" s="3">
         <v>46200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>49100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>47900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>49000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>48800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>50900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>49500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>50800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>50900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>50800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>49600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>48800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>47700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>24100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>23900</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4795,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,119 +5048,125 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
-      </c>
-      <c r="E81" s="3">
-        <v>400</v>
       </c>
       <c r="F81" s="3">
         <v>400</v>
       </c>
       <c r="G81" s="3">
+        <v>400</v>
+      </c>
+      <c r="H81" s="3">
         <v>200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>300</v>
       </c>
       <c r="I81" s="3">
         <v>300</v>
       </c>
       <c r="J81" s="3">
+        <v>300</v>
+      </c>
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
-      </c>
-      <c r="P81" s="3">
-        <v>300</v>
       </c>
       <c r="Q81" s="3">
         <v>300</v>
@@ -4981,22 +5175,25 @@
         <v>300</v>
       </c>
       <c r="S81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T81" s="3">
         <v>200</v>
       </c>
       <c r="U81" s="3">
+        <v>200</v>
+      </c>
+      <c r="V81" s="3">
         <v>300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>500</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5047,11 +5245,11 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -5076,8 +5274,8 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
@@ -5085,8 +5283,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>600</v>
+      </c>
+      <c r="E89" s="3">
         <v>700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
-      </c>
-      <c r="H89" s="3">
-        <v>300</v>
       </c>
       <c r="I89" s="3">
         <v>300</v>
       </c>
       <c r="J89" s="3">
+        <v>300</v>
+      </c>
+      <c r="K89" s="3">
         <v>800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>400</v>
-      </c>
-      <c r="R89" s="3">
-        <v>300</v>
       </c>
       <c r="S89" s="3">
         <v>300</v>
       </c>
       <c r="T89" s="3">
+        <v>300</v>
+      </c>
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,25 +5719,26 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5527,19 +5747,19 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5556,8 +5776,8 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
@@ -5565,8 +5785,11 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2300</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5824,7 +6057,7 @@
         <v>-100</v>
       </c>
       <c r="O96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P96" s="3">
         <v>0</v>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>3400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>11000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>15700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-16500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>30500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>7700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1700</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>26800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>900</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSVB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSVB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>MSVB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,117 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="E8" s="3">
         <v>1900</v>
@@ -782,19 +790,19 @@
         <v>1900</v>
       </c>
       <c r="I8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1900</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2000</v>
       </c>
       <c r="N8" s="3">
         <v>2000</v>
@@ -806,19 +814,19 @@
         <v>2000</v>
       </c>
       <c r="Q8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S8" s="3">
         <v>1900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1700</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1600</v>
-      </c>
-      <c r="U8" s="3">
-        <v>1600</v>
       </c>
       <c r="V8" s="3">
         <v>1600</v>
@@ -826,11 +834,17 @@
       <c r="W8" s="3">
         <v>1600</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +911,14 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +985,14 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1017,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1087,14 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1161,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1235,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1309,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,19 +1338,21 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
@@ -1313,60 +1367,66 @@
         <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
       <c r="T17" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
       </c>
       <c r="V17" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y17" s="3">
         <v>-100</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F18" s="3">
         <v>1900</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1700</v>
       </c>
       <c r="G18" s="3">
         <v>1700</v>
@@ -1375,55 +1435,61 @@
         <v>1700</v>
       </c>
       <c r="I18" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="J18" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K18" s="3">
         <v>1600</v>
       </c>
       <c r="L18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N18" s="3">
         <v>1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>1400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>1400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>1700</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,81 +1514,89 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="E20" s="3">
         <v>-1200</v>
       </c>
       <c r="F20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1500</v>
       </c>
       <c r="I20" s="3">
         <v>-1300</v>
       </c>
       <c r="J20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-1600</v>
       </c>
       <c r="N20" s="3">
         <v>-1500</v>
       </c>
       <c r="O20" s="3">
-        <v>-1400</v>
+        <v>-1600</v>
       </c>
       <c r="P20" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="Q20" s="3">
         <v>-1400</v>
       </c>
       <c r="R20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-1100</v>
       </c>
       <c r="U20" s="3">
         <v>-1100</v>
       </c>
       <c r="V20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="W20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="X20" s="3">
         <v>-1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-1000</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E21" s="3">
         <v>500</v>
@@ -1531,61 +1605,67 @@
         <v>400</v>
       </c>
       <c r="G21" s="3">
+        <v>500</v>
+      </c>
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>400</v>
+      </c>
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>600</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>400</v>
-      </c>
-      <c r="R21" s="3">
-        <v>400</v>
       </c>
       <c r="S21" s="3">
         <v>400</v>
       </c>
       <c r="T21" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="U21" s="3">
         <v>400</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
+      <c r="V21" s="3">
+        <v>700</v>
       </c>
       <c r="W21" s="3">
+        <v>400</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="3">
         <v>800</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,13 +1732,19 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E23" s="3">
         <v>500</v>
@@ -1667,61 +1753,67 @@
         <v>400</v>
       </c>
       <c r="G23" s="3">
+        <v>500</v>
+      </c>
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>400</v>
+      </c>
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>700</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1747,22 +1839,22 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>100</v>
@@ -1774,22 +1866,28 @@
         <v>100</v>
       </c>
       <c r="T24" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="U24" s="3">
         <v>100</v>
       </c>
       <c r="V24" s="3">
+        <v>500</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y24" s="3">
         <v>300</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,13 +1954,19 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E26" s="3">
         <v>500</v>
@@ -1871,66 +1975,72 @@
         <v>400</v>
       </c>
       <c r="G26" s="3">
+        <v>500</v>
+      </c>
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>400</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>500</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>300</v>
-      </c>
-      <c r="R26" s="3">
-        <v>300</v>
       </c>
       <c r="S26" s="3">
         <v>300</v>
       </c>
       <c r="T26" s="3">
+        <v>300</v>
+      </c>
+      <c r="U26" s="3">
+        <v>300</v>
+      </c>
+      <c r="V26" s="3">
         <v>200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>500</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E27" s="3">
         <v>500</v>
@@ -1939,61 +2049,67 @@
         <v>400</v>
       </c>
       <c r="G27" s="3">
+        <v>500</v>
+      </c>
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>400</v>
+      </c>
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>500</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>300</v>
-      </c>
-      <c r="R27" s="3">
-        <v>300</v>
       </c>
       <c r="S27" s="3">
         <v>300</v>
       </c>
       <c r="T27" s="3">
+        <v>300</v>
+      </c>
+      <c r="U27" s="3">
+        <v>300</v>
+      </c>
+      <c r="V27" s="3">
         <v>200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>500</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2250,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,81 +2398,93 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E32" s="3">
         <v>1200</v>
       </c>
       <c r="F32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H32" s="3">
         <v>1300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1500</v>
       </c>
       <c r="I32" s="3">
         <v>1300</v>
       </c>
       <c r="J32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1500</v>
-      </c>
-      <c r="M32" s="3">
-        <v>1600</v>
       </c>
       <c r="N32" s="3">
         <v>1500</v>
       </c>
       <c r="O32" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="P32" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="Q32" s="3">
         <v>1400</v>
       </c>
       <c r="R32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T32" s="3">
         <v>1300</v>
-      </c>
-      <c r="S32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="T32" s="3">
-        <v>1100</v>
       </c>
       <c r="U32" s="3">
         <v>1100</v>
       </c>
       <c r="V32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X32" s="3">
         <v>1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>1000</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E33" s="3">
         <v>500</v>
@@ -2347,61 +2493,67 @@
         <v>400</v>
       </c>
       <c r="G33" s="3">
+        <v>500</v>
+      </c>
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>400</v>
+      </c>
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>500</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>300</v>
-      </c>
-      <c r="R33" s="3">
-        <v>300</v>
       </c>
       <c r="S33" s="3">
         <v>300</v>
       </c>
       <c r="T33" s="3">
+        <v>300</v>
+      </c>
+      <c r="U33" s="3">
+        <v>300</v>
+      </c>
+      <c r="V33" s="3">
         <v>200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>500</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,13 +2620,19 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E35" s="3">
         <v>500</v>
@@ -2483,134 +2641,146 @@
         <v>400</v>
       </c>
       <c r="G35" s="3">
+        <v>500</v>
+      </c>
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>400</v>
+      </c>
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>500</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>300</v>
-      </c>
-      <c r="R35" s="3">
-        <v>300</v>
       </c>
       <c r="S35" s="3">
         <v>300</v>
       </c>
       <c r="T35" s="3">
+        <v>300</v>
+      </c>
+      <c r="U35" s="3">
+        <v>300</v>
+      </c>
+      <c r="V35" s="3">
         <v>200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>500</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,65 +2833,67 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E41" s="3">
         <v>1600</v>
       </c>
       <c r="F41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H41" s="3">
         <v>2400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1300</v>
-      </c>
-      <c r="N41" s="3">
-        <v>900</v>
-      </c>
-      <c r="O41" s="3">
-        <v>900</v>
       </c>
       <c r="P41" s="3">
         <v>900</v>
       </c>
       <c r="Q41" s="3">
+        <v>900</v>
+      </c>
+      <c r="R41" s="3">
+        <v>900</v>
+      </c>
+      <c r="S41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2729,65 +2903,71 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F42" s="3">
         <v>15800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>17000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>16900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>22800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>8700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>14300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>22000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>20400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>18000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>19400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>22000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>9900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>12600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>19100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>43100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>16400</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,8 +2977,14 @@
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +3051,14 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3125,14 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3199,14 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3273,14 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,37 +3347,43 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1900</v>
       </c>
       <c r="F48" s="3">
         <v>2000</v>
       </c>
       <c r="G48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H48" s="3">
         <v>2000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J48" s="3">
         <v>1900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1800</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1900</v>
       </c>
       <c r="M48" s="3">
         <v>1900</v>
@@ -3185,17 +3401,17 @@
         <v>1900</v>
       </c>
       <c r="R48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T48" s="3">
         <v>2000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2000</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3205,8 +3421,14 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3495,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3643,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3717,14 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,65 +3791,71 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>266500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>261500</v>
+      </c>
+      <c r="F54" s="3">
         <v>254300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>252300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>249200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>244900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>235400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>218300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>217500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>208300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>208400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>209100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>207700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>198700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>200700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>199400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>214800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>184000</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3613,8 +3865,14 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3925,10 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3697,11 +3959,11 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
@@ -3712,11 +3974,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3">
-        <v>0</v>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -3733,8 +3995,14 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,37 +4069,43 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>900</v>
+      </c>
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>600</v>
       </c>
       <c r="M59" s="3">
         <v>600</v>
@@ -3843,23 +4117,23 @@
         <v>600</v>
       </c>
       <c r="P59" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q59" s="3">
         <v>600</v>
       </c>
       <c r="R59" s="3">
+        <v>700</v>
+      </c>
+      <c r="S59" s="3">
+        <v>600</v>
+      </c>
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,8 +4143,14 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,8 +4217,14 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4291,14 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4365,14 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,65 +4587,71 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>232100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>220500</v>
+      </c>
+      <c r="F66" s="3">
         <v>207700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>206000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>200000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>197000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>186400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>169400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>166600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>158800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>157600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>158200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>156900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>149100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>151800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>151800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>190600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>160100</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4345,8 +4661,14 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,65 +4985,71 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>23900</v>
+      </c>
+      <c r="F72" s="3">
         <v>23500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>23300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>22900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>22600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>22300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>22200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>22000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>21700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>21400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>21200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>21200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>21000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>20700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>20200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>19900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>19600</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4711,8 +5059,14 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,65 +5281,71 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>41000</v>
+      </c>
+      <c r="F76" s="3">
         <v>46500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>46200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>49100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>47900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>49000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>48800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>50900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>49500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>50800</v>
-      </c>
-      <c r="M76" s="3">
-        <v>50900</v>
       </c>
       <c r="N76" s="3">
         <v>50800</v>
       </c>
       <c r="O76" s="3">
+        <v>50900</v>
+      </c>
+      <c r="P76" s="3">
+        <v>50800</v>
+      </c>
+      <c r="Q76" s="3">
         <v>49600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>48800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>47700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>24100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>23900</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4983,8 +5355,14 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,86 +5429,98 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E81" s="3">
         <v>500</v>
@@ -5139,61 +5529,67 @@
         <v>400</v>
       </c>
       <c r="G81" s="3">
+        <v>500</v>
+      </c>
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>400</v>
+      </c>
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>500</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>300</v>
-      </c>
-      <c r="R81" s="3">
-        <v>300</v>
       </c>
       <c r="S81" s="3">
         <v>300</v>
       </c>
       <c r="T81" s="3">
+        <v>300</v>
+      </c>
+      <c r="U81" s="3">
+        <v>300</v>
+      </c>
+      <c r="V81" s="3">
         <v>200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>500</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5614,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5248,14 +5646,14 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
@@ -5277,17 +5675,23 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6054,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>700</v>
+      </c>
+      <c r="E89" s="3">
         <v>600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>600</v>
+      </c>
+      <c r="G89" s="3">
         <v>700</v>
-      </c>
-      <c r="F89" s="3">
-        <v>500</v>
-      </c>
-      <c r="G89" s="3">
-        <v>600</v>
       </c>
       <c r="H89" s="3">
         <v>500</v>
       </c>
       <c r="I89" s="3">
+        <v>600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>500</v>
+      </c>
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>800</v>
-      </c>
-      <c r="L89" s="3">
-        <v>400</v>
-      </c>
-      <c r="M89" s="3">
-        <v>300</v>
       </c>
       <c r="N89" s="3">
         <v>400</v>
       </c>
       <c r="O89" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P89" s="3">
         <v>400</v>
       </c>
       <c r="Q89" s="3">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="R89" s="3">
         <v>400</v>
       </c>
       <c r="S89" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T89" s="3">
+        <v>400</v>
+      </c>
+      <c r="U89" s="3">
         <v>300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>200</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,52 +6160,54 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5779,17 +6221,23 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6378,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-4800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-8400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>2500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-22100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-8000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-5100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>1300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>4000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-8800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-4100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-4200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>2300</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6060,10 +6528,10 @@
         <v>-100</v>
       </c>
       <c r="P96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R96" s="3">
         <v>0</v>
@@ -6086,8 +6554,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6776,88 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>3400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>2600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>11000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>15700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>5600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>7700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-2700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-16500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>30500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>7700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1700</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6924,84 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-5300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>14100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-5800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-7100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>12100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-24000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>26800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>8900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-3400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>900</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSVB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSVB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
   <si>
     <t>MSVB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,124 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E8" s="3">
         <v>2200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1900</v>
       </c>
       <c r="F8" s="3">
         <v>1900</v>
@@ -796,16 +800,16 @@
         <v>1900</v>
       </c>
       <c r="K8" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="L8" s="3">
         <v>1800</v>
       </c>
       <c r="M8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N8" s="3">
         <v>1900</v>
-      </c>
-      <c r="N8" s="3">
-        <v>2000</v>
       </c>
       <c r="O8" s="3">
         <v>2000</v>
@@ -820,16 +824,16 @@
         <v>2000</v>
       </c>
       <c r="S8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T8" s="3">
         <v>1900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1700</v>
-      </c>
-      <c r="V8" s="3">
-        <v>1600</v>
       </c>
       <c r="W8" s="3">
         <v>1600</v>
@@ -840,11 +844,14 @@
       <c r="Y8" s="3">
         <v>1600</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -917,8 +924,11 @@
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1001,11 @@
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1107,11 @@
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1184,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1241,8 +1261,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,22 +1366,23 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1373,7 +1400,7 @@
         <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
@@ -1382,16 +1409,16 @@
         <v>300</v>
       </c>
       <c r="P17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
@@ -1400,36 +1427,39 @@
         <v>200</v>
       </c>
       <c r="V17" s="3">
+        <v>200</v>
+      </c>
+      <c r="W17" s="3">
         <v>-200</v>
-      </c>
-      <c r="W17" s="3">
-        <v>200</v>
       </c>
       <c r="X17" s="3">
         <v>200</v>
       </c>
       <c r="Y17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z17" s="3">
         <v>-100</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E18" s="3">
         <v>2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1900</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1700</v>
       </c>
       <c r="H18" s="3">
         <v>1700</v>
@@ -1441,7 +1471,7 @@
         <v>1700</v>
       </c>
       <c r="K18" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="L18" s="3">
         <v>1600</v>
@@ -1450,46 +1480,49 @@
         <v>1600</v>
       </c>
       <c r="N18" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="O18" s="3">
         <v>1700</v>
       </c>
       <c r="P18" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="Q18" s="3">
         <v>1800</v>
       </c>
       <c r="R18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S18" s="3">
         <v>2000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1800</v>
-      </c>
-      <c r="W18" s="3">
-        <v>1400</v>
       </c>
       <c r="X18" s="3">
         <v>1400</v>
       </c>
       <c r="Y18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z18" s="3">
         <v>1700</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,8 +1549,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1525,43 +1559,43 @@
         <v>-1400</v>
       </c>
       <c r="E20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1300</v>
       </c>
       <c r="I20" s="3">
         <v>-1300</v>
       </c>
       <c r="J20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1200</v>
       </c>
       <c r="M20" s="3">
         <v>-1200</v>
       </c>
       <c r="N20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-1400</v>
       </c>
       <c r="R20" s="3">
         <v>-1400</v>
@@ -1570,10 +1604,10 @@
         <v>-1400</v>
       </c>
       <c r="T20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="U20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-1100</v>
       </c>
       <c r="V20" s="3">
         <v>-1100</v>
@@ -1582,16 +1616,19 @@
         <v>-1100</v>
       </c>
       <c r="X20" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="Y20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1599,49 +1636,49 @@
         <v>600</v>
       </c>
       <c r="E21" s="3">
+        <v>600</v>
+      </c>
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>400</v>
       </c>
       <c r="I21" s="3">
         <v>400</v>
       </c>
       <c r="J21" s="3">
+        <v>400</v>
+      </c>
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>600</v>
-      </c>
-      <c r="S21" s="3">
-        <v>400</v>
       </c>
       <c r="T21" s="3">
         <v>400</v>
@@ -1650,22 +1687,25 @@
         <v>400</v>
       </c>
       <c r="V21" s="3">
+        <v>400</v>
+      </c>
+      <c r="W21" s="3">
         <v>700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>400</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="3">
         <v>800</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,82 +1778,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>500</v>
+      </c>
+      <c r="E23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>400</v>
       </c>
       <c r="I23" s="3">
         <v>400</v>
       </c>
       <c r="J23" s="3">
+        <v>400</v>
+      </c>
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>400</v>
       </c>
       <c r="M23" s="3">
         <v>400</v>
       </c>
       <c r="N23" s="3">
+        <v>400</v>
+      </c>
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>400</v>
       </c>
       <c r="U23" s="3">
         <v>400</v>
       </c>
       <c r="V23" s="3">
+        <v>400</v>
+      </c>
+      <c r="W23" s="3">
         <v>700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>700</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1845,11 +1891,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1857,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
@@ -1872,22 +1918,25 @@
         <v>100</v>
       </c>
       <c r="V24" s="3">
+        <v>100</v>
+      </c>
+      <c r="W24" s="3">
         <v>500</v>
-      </c>
-      <c r="W24" s="3">
-        <v>100</v>
       </c>
       <c r="X24" s="3">
         <v>100</v>
       </c>
       <c r="Y24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z24" s="3">
         <v>300</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,8 +2009,11 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1972,46 +2024,46 @@
         <v>500</v>
       </c>
       <c r="F26" s="3">
+        <v>500</v>
+      </c>
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>400</v>
       </c>
       <c r="I26" s="3">
         <v>400</v>
       </c>
       <c r="J26" s="3">
+        <v>400</v>
+      </c>
+      <c r="K26" s="3">
         <v>200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>300</v>
       </c>
       <c r="L26" s="3">
         <v>300</v>
       </c>
       <c r="M26" s="3">
+        <v>300</v>
+      </c>
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>500</v>
-      </c>
-      <c r="S26" s="3">
-        <v>300</v>
       </c>
       <c r="T26" s="3">
         <v>300</v>
@@ -2020,22 +2072,25 @@
         <v>300</v>
       </c>
       <c r="V26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W26" s="3">
         <v>200</v>
       </c>
       <c r="X26" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y26" s="3">
         <v>300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>500</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2046,46 +2101,46 @@
         <v>500</v>
       </c>
       <c r="F27" s="3">
+        <v>500</v>
+      </c>
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>400</v>
       </c>
       <c r="I27" s="3">
         <v>400</v>
       </c>
       <c r="J27" s="3">
+        <v>400</v>
+      </c>
+      <c r="K27" s="3">
         <v>200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>300</v>
       </c>
       <c r="L27" s="3">
         <v>300</v>
       </c>
       <c r="M27" s="3">
+        <v>300</v>
+      </c>
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>500</v>
-      </c>
-      <c r="S27" s="3">
-        <v>300</v>
       </c>
       <c r="T27" s="3">
         <v>300</v>
@@ -2094,22 +2149,25 @@
         <v>300</v>
       </c>
       <c r="V27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W27" s="3">
         <v>200</v>
       </c>
       <c r="X27" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y27" s="3">
         <v>300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>500</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2471,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2413,43 +2483,43 @@
         <v>1400</v>
       </c>
       <c r="E32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1300</v>
       </c>
       <c r="I32" s="3">
         <v>1300</v>
       </c>
       <c r="J32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K32" s="3">
         <v>1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1200</v>
       </c>
       <c r="M32" s="3">
         <v>1200</v>
       </c>
       <c r="N32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O32" s="3">
         <v>1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>1400</v>
       </c>
       <c r="R32" s="3">
         <v>1400</v>
@@ -2458,10 +2528,10 @@
         <v>1400</v>
       </c>
       <c r="T32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U32" s="3">
         <v>1300</v>
-      </c>
-      <c r="U32" s="3">
-        <v>1100</v>
       </c>
       <c r="V32" s="3">
         <v>1100</v>
@@ -2470,16 +2540,19 @@
         <v>1100</v>
       </c>
       <c r="X32" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Y32" s="3">
         <v>1000</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2490,46 +2563,46 @@
         <v>500</v>
       </c>
       <c r="F33" s="3">
+        <v>500</v>
+      </c>
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>400</v>
       </c>
       <c r="I33" s="3">
         <v>400</v>
       </c>
       <c r="J33" s="3">
+        <v>400</v>
+      </c>
+      <c r="K33" s="3">
         <v>200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>300</v>
       </c>
       <c r="L33" s="3">
         <v>300</v>
       </c>
       <c r="M33" s="3">
+        <v>300</v>
+      </c>
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>500</v>
-      </c>
-      <c r="S33" s="3">
-        <v>300</v>
       </c>
       <c r="T33" s="3">
         <v>300</v>
@@ -2538,22 +2611,25 @@
         <v>300</v>
       </c>
       <c r="V33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W33" s="3">
         <v>200</v>
       </c>
       <c r="X33" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y33" s="3">
         <v>300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>500</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,8 +2702,11 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2638,46 +2717,46 @@
         <v>500</v>
       </c>
       <c r="F35" s="3">
+        <v>500</v>
+      </c>
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>400</v>
       </c>
       <c r="I35" s="3">
         <v>400</v>
       </c>
       <c r="J35" s="3">
+        <v>400</v>
+      </c>
+      <c r="K35" s="3">
         <v>200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>300</v>
       </c>
       <c r="L35" s="3">
         <v>300</v>
       </c>
       <c r="M35" s="3">
+        <v>300</v>
+      </c>
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>500</v>
-      </c>
-      <c r="S35" s="3">
-        <v>300</v>
       </c>
       <c r="T35" s="3">
         <v>300</v>
@@ -2686,101 +2765,107 @@
         <v>300</v>
       </c>
       <c r="V35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W35" s="3">
         <v>200</v>
       </c>
       <c r="X35" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y35" s="3">
         <v>300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>500</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,49 +2921,50 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2400</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1800</v>
       </c>
       <c r="J41" s="3">
         <v>1800</v>
       </c>
       <c r="K41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L41" s="3">
         <v>1900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1300</v>
-      </c>
-      <c r="P41" s="3">
-        <v>900</v>
       </c>
       <c r="Q41" s="3">
         <v>900</v>
@@ -2886,17 +2973,17 @@
         <v>900</v>
       </c>
       <c r="S41" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T41" s="3">
         <v>800</v>
       </c>
       <c r="U41" s="3">
+        <v>800</v>
+      </c>
+      <c r="V41" s="3">
         <v>700</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2909,68 +2996,71 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E42" s="3">
         <v>4600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>5900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>15800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>17000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>16900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>22800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>8700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>22000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>20400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>18000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>19400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>22000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>9900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>12600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>19100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>43100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>16400</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,8 +3073,11 @@
       <c r="Z42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3057,8 +3150,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,8 +3227,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3205,8 +3304,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3279,8 +3381,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,40 +3458,43 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2000</v>
       </c>
       <c r="F48" s="3">
         <v>2000</v>
       </c>
       <c r="G48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H48" s="3">
         <v>1900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2000</v>
       </c>
       <c r="I48" s="3">
         <v>2000</v>
       </c>
       <c r="J48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1900</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1800</v>
       </c>
       <c r="L48" s="3">
         <v>1800</v>
       </c>
       <c r="M48" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="N48" s="3">
         <v>1900</v>
@@ -3407,13 +3515,13 @@
         <v>1900</v>
       </c>
       <c r="T48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="U48" s="3">
         <v>2000</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
+      <c r="V48" s="3">
+        <v>2000</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
@@ -3427,8 +3535,11 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3501,8 +3612,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3766,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3723,8 +3843,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,68 +3920,71 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>264500</v>
+      </c>
+      <c r="E54" s="3">
         <v>266500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>261500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>254300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>252300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>249200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>244900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>235400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>218300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>217500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>208300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>208400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>209100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>207700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>198700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>200700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>199400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>214800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>184000</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3871,8 +3997,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,8 +4057,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3965,8 +4096,8 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
+      <c r="O57" s="3">
+        <v>0</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
@@ -3980,8 +4111,8 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
@@ -4001,8 +4132,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4075,40 +4209,43 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>900</v>
-      </c>
-      <c r="F59" s="3">
-        <v>800</v>
       </c>
       <c r="G59" s="3">
         <v>800</v>
       </c>
       <c r="H59" s="3">
+        <v>800</v>
+      </c>
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
-      </c>
-      <c r="M59" s="3">
-        <v>600</v>
       </c>
       <c r="N59" s="3">
         <v>600</v>
@@ -4123,19 +4260,19 @@
         <v>600</v>
       </c>
       <c r="R59" s="3">
+        <v>600</v>
+      </c>
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>600</v>
-      </c>
-      <c r="T59" s="3">
-        <v>500</v>
       </c>
       <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
+      <c r="V59" s="3">
+        <v>500</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
@@ -4149,8 +4286,11 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4223,8 +4363,11 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4297,8 +4440,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4371,8 +4517,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,68 +4748,71 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>233700</v>
+      </c>
+      <c r="E66" s="3">
         <v>232100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>220500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>207700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>206000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>200000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>197000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>186400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>169400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>166600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>158800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>157600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>158200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>156900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>149100</v>
-      </c>
-      <c r="R66" s="3">
-        <v>151800</v>
       </c>
       <c r="S66" s="3">
         <v>151800</v>
       </c>
       <c r="T66" s="3">
+        <v>151800</v>
+      </c>
+      <c r="U66" s="3">
         <v>190600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>160100</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4667,8 +4825,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,68 +5162,71 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E72" s="3">
         <v>24300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>23900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>23500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>23300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>22900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>22600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>22300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>21700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>21400</v>
-      </c>
-      <c r="O72" s="3">
-        <v>21200</v>
       </c>
       <c r="P72" s="3">
         <v>21200</v>
       </c>
       <c r="Q72" s="3">
+        <v>21200</v>
+      </c>
+      <c r="R72" s="3">
         <v>21000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>20700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>20200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19600</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5065,8 +5239,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,68 +5470,71 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E76" s="3">
         <v>34400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>41000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>46500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>46200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>49100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>47900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>49000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>48800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>50900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>49500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>50800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>50900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>50800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>49600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>48800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>47700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>24100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>23900</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5361,8 +5547,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,87 +5624,93 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5526,46 +5721,46 @@
         <v>500</v>
       </c>
       <c r="F81" s="3">
+        <v>500</v>
+      </c>
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>400</v>
       </c>
       <c r="I81" s="3">
         <v>400</v>
       </c>
       <c r="J81" s="3">
+        <v>400</v>
+      </c>
+      <c r="K81" s="3">
         <v>200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>300</v>
       </c>
       <c r="L81" s="3">
         <v>300</v>
       </c>
       <c r="M81" s="3">
+        <v>300</v>
+      </c>
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>500</v>
-      </c>
-      <c r="S81" s="3">
-        <v>300</v>
       </c>
       <c r="T81" s="3">
         <v>300</v>
@@ -5574,22 +5769,25 @@
         <v>300</v>
       </c>
       <c r="V81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W81" s="3">
         <v>200</v>
       </c>
       <c r="X81" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y81" s="3">
         <v>300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>500</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,13 +5814,14 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5652,11 +5851,11 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
@@ -5681,8 +5880,8 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
+      <c r="X83" s="3">
+        <v>0</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
@@ -5690,8 +5889,11 @@
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>800</v>
+      </c>
+      <c r="E89" s="3">
         <v>700</v>
-      </c>
-      <c r="E89" s="3">
-        <v>600</v>
       </c>
       <c r="F89" s="3">
         <v>600</v>
       </c>
       <c r="G89" s="3">
+        <v>600</v>
+      </c>
+      <c r="H89" s="3">
         <v>700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>500</v>
-      </c>
-      <c r="K89" s="3">
-        <v>300</v>
       </c>
       <c r="L89" s="3">
         <v>300</v>
       </c>
       <c r="M89" s="3">
+        <v>300</v>
+      </c>
+      <c r="N89" s="3">
         <v>800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>400</v>
-      </c>
-      <c r="U89" s="3">
-        <v>300</v>
       </c>
       <c r="V89" s="3">
         <v>300</v>
       </c>
       <c r="W89" s="3">
+        <v>300</v>
+      </c>
+      <c r="X89" s="3">
         <v>200</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6382,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6171,25 +6392,25 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -6198,19 +6419,19 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6227,8 +6448,8 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
@@ -6236,8 +6457,11 @@
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6611,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-22800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-22100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>4000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>2300</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6534,7 +6768,7 @@
         <v>-100</v>
       </c>
       <c r="R96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S96" s="3">
         <v>0</v>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,82 +7025,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E100" s="3">
         <v>9300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>12500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>11000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>15700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>7700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-16500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>30500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>7700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1700</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,78 +7179,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>12100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-24000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>26800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>8900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>900</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSVB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSVB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
   <si>
     <t>MSVB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,137 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F8" s="3">
         <v>2300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1900</v>
       </c>
       <c r="H8" s="3">
         <v>1900</v>
@@ -803,19 +810,19 @@
         <v>1900</v>
       </c>
       <c r="L8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N8" s="3">
         <v>1800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1900</v>
-      </c>
-      <c r="O8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="P8" s="3">
-        <v>2000</v>
       </c>
       <c r="Q8" s="3">
         <v>2000</v>
@@ -827,19 +834,19 @@
         <v>2000</v>
       </c>
       <c r="T8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V8" s="3">
         <v>1900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1700</v>
-      </c>
-      <c r="W8" s="3">
-        <v>1600</v>
-      </c>
-      <c r="X8" s="3">
-        <v>1600</v>
       </c>
       <c r="Y8" s="3">
         <v>1600</v>
@@ -847,11 +854,17 @@
       <c r="Z8" s="3">
         <v>1600</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -927,8 +940,14 @@
       <c r="AA9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1023,14 @@
       <c r="AA10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1033,8 +1058,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1110,8 +1137,14 @@
       <c r="AA12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,8 +1220,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1264,8 +1303,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1341,8 +1386,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,28 +1418,30 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
@@ -1403,69 +1456,75 @@
         <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
       </c>
       <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
+        <v>300</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
       </c>
       <c r="U17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V17" s="3">
         <v>200</v>
       </c>
       <c r="W17" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="X17" s="3">
         <v>200</v>
       </c>
       <c r="Y17" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB17" s="3">
         <v>-100</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E18" s="3">
         <v>2000</v>
       </c>
       <c r="F18" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H18" s="3">
         <v>1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1900</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1700</v>
       </c>
       <c r="J18" s="3">
         <v>1700</v>
@@ -1474,55 +1533,61 @@
         <v>1700</v>
       </c>
       <c r="L18" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M18" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="N18" s="3">
         <v>1600</v>
       </c>
       <c r="O18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>1600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>1500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>1800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>1400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>1400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>1700</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,99 +1615,107 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1500</v>
       </c>
       <c r="H20" s="3">
         <v>-1200</v>
       </c>
       <c r="I20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1500</v>
       </c>
       <c r="L20" s="3">
         <v>-1300</v>
       </c>
       <c r="M20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-1600</v>
       </c>
       <c r="Q20" s="3">
         <v>-1500</v>
       </c>
       <c r="R20" s="3">
-        <v>-1400</v>
+        <v>-1600</v>
       </c>
       <c r="S20" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="T20" s="3">
         <v>-1400</v>
       </c>
       <c r="U20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="W20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-1100</v>
       </c>
       <c r="X20" s="3">
         <v>-1100</v>
       </c>
       <c r="Y20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>400</v>
+      </c>
+      <c r="F21" s="3">
         <v>600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>600</v>
-      </c>
-      <c r="F21" s="3">
-        <v>500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>400</v>
       </c>
       <c r="H21" s="3">
         <v>500</v>
@@ -1651,61 +1724,67 @@
         <v>400</v>
       </c>
       <c r="J21" s="3">
+        <v>500</v>
+      </c>
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
+        <v>400</v>
+      </c>
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>600</v>
-      </c>
-      <c r="T21" s="3">
-        <v>400</v>
-      </c>
-      <c r="U21" s="3">
-        <v>400</v>
       </c>
       <c r="V21" s="3">
         <v>400</v>
       </c>
       <c r="W21" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="X21" s="3">
         <v>400</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
+      <c r="Y21" s="3">
+        <v>700</v>
       </c>
       <c r="Z21" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="3">
         <v>800</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1781,22 +1860,28 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E23" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="F23" s="3">
         <v>500</v>
       </c>
       <c r="G23" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H23" s="3">
         <v>500</v>
@@ -1805,61 +1890,67 @@
         <v>400</v>
       </c>
       <c r="J23" s="3">
+        <v>500</v>
+      </c>
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>400</v>
+      </c>
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>700</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1894,22 +1985,22 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T24" s="3">
         <v>100</v>
@@ -1921,22 +2012,28 @@
         <v>100</v>
       </c>
       <c r="W24" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="X24" s="3">
         <v>100</v>
       </c>
       <c r="Y24" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z24" s="3">
         <v>100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB24" s="3">
         <v>300</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,22 +2109,28 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E26" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F26" s="3">
         <v>500</v>
       </c>
       <c r="G26" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H26" s="3">
         <v>500</v>
@@ -2036,75 +2139,81 @@
         <v>400</v>
       </c>
       <c r="J26" s="3">
+        <v>500</v>
+      </c>
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>400</v>
+      </c>
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>500</v>
-      </c>
-      <c r="T26" s="3">
-        <v>300</v>
-      </c>
-      <c r="U26" s="3">
-        <v>300</v>
       </c>
       <c r="V26" s="3">
         <v>300</v>
       </c>
       <c r="W26" s="3">
+        <v>300</v>
+      </c>
+      <c r="X26" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y26" s="3">
         <v>200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>500</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E27" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F27" s="3">
         <v>500</v>
       </c>
       <c r="G27" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H27" s="3">
         <v>500</v>
@@ -2113,61 +2222,67 @@
         <v>400</v>
       </c>
       <c r="J27" s="3">
+        <v>500</v>
+      </c>
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>400</v>
+      </c>
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>500</v>
-      </c>
-      <c r="T27" s="3">
-        <v>300</v>
-      </c>
-      <c r="U27" s="3">
-        <v>300</v>
       </c>
       <c r="V27" s="3">
         <v>300</v>
       </c>
       <c r="W27" s="3">
+        <v>300</v>
+      </c>
+      <c r="X27" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y27" s="3">
         <v>200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>500</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2358,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2320,8 +2441,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,99 +2607,111 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1500</v>
       </c>
       <c r="H32" s="3">
         <v>1200</v>
       </c>
       <c r="I32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K32" s="3">
         <v>1300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1500</v>
       </c>
       <c r="L32" s="3">
         <v>1300</v>
       </c>
       <c r="M32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1500</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1600</v>
       </c>
       <c r="Q32" s="3">
         <v>1500</v>
       </c>
       <c r="R32" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="S32" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="T32" s="3">
         <v>1400</v>
       </c>
       <c r="U32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W32" s="3">
         <v>1300</v>
-      </c>
-      <c r="V32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="W32" s="3">
-        <v>1100</v>
       </c>
       <c r="X32" s="3">
         <v>1100</v>
       </c>
       <c r="Y32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA32" s="3">
         <v>1000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>1000</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E33" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F33" s="3">
         <v>500</v>
       </c>
       <c r="G33" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H33" s="3">
         <v>500</v>
@@ -2575,61 +2720,67 @@
         <v>400</v>
       </c>
       <c r="J33" s="3">
+        <v>500</v>
+      </c>
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>400</v>
+      </c>
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>500</v>
-      </c>
-      <c r="T33" s="3">
-        <v>300</v>
-      </c>
-      <c r="U33" s="3">
-        <v>300</v>
       </c>
       <c r="V33" s="3">
         <v>300</v>
       </c>
       <c r="W33" s="3">
+        <v>300</v>
+      </c>
+      <c r="X33" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y33" s="3">
         <v>200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>500</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,22 +2856,28 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E35" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F35" s="3">
         <v>500</v>
       </c>
       <c r="G35" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H35" s="3">
         <v>500</v>
@@ -2729,143 +2886,155 @@
         <v>400</v>
       </c>
       <c r="J35" s="3">
+        <v>500</v>
+      </c>
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>400</v>
+      </c>
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>500</v>
-      </c>
-      <c r="T35" s="3">
-        <v>300</v>
-      </c>
-      <c r="U35" s="3">
-        <v>300</v>
       </c>
       <c r="V35" s="3">
         <v>300</v>
       </c>
       <c r="W35" s="3">
+        <v>300</v>
+      </c>
+      <c r="X35" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y35" s="3">
         <v>200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>500</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,74 +3093,76 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1500</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1400</v>
       </c>
       <c r="H41" s="3">
         <v>1600</v>
       </c>
       <c r="I41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K41" s="3">
         <v>2400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>900</v>
-      </c>
-      <c r="R41" s="3">
-        <v>900</v>
       </c>
       <c r="S41" s="3">
         <v>900</v>
       </c>
       <c r="T41" s="3">
+        <v>900</v>
+      </c>
+      <c r="U41" s="3">
+        <v>900</v>
+      </c>
+      <c r="V41" s="3">
         <v>800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>700</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2999,74 +3172,80 @@
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F42" s="3">
         <v>4100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>4600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>5900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>15800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>17000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>16900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>22800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>8700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>14300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>22000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>20400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>18000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>19400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>22000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>9900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>12600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>19100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>43100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>16400</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3076,8 +3255,14 @@
       <c r="AA42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3153,8 +3338,14 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3230,8 +3421,14 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3307,8 +3504,14 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3384,8 +3587,14 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3461,8 +3670,14 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3470,37 +3685,37 @@
         <v>2200</v>
       </c>
       <c r="E48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G48" s="3">
         <v>2100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1900</v>
       </c>
       <c r="I48" s="3">
         <v>2000</v>
       </c>
       <c r="J48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K48" s="3">
         <v>2000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M48" s="3">
         <v>1900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1800</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1900</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1900</v>
       </c>
       <c r="P48" s="3">
         <v>1900</v>
@@ -3518,17 +3733,17 @@
         <v>1900</v>
       </c>
       <c r="U48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="W48" s="3">
         <v>2000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>2000</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3538,8 +3753,14 @@
       <c r="AA48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3615,8 +3836,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,8 +4002,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3846,8 +4085,14 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,74 +4168,80 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>266400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>269200</v>
+      </c>
+      <c r="F54" s="3">
         <v>264500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>266500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>261500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>254300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>252300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>249200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>244900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>235400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>218300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>217500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>208300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>208400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>209100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>207700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>198700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>200700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>199400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>214800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>184000</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4000,8 +4251,14 @@
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,13 +4317,15 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -4099,11 +4360,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
@@ -4114,11 +4375,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
-      <c r="V57" s="3">
-        <v>0</v>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
@@ -4135,8 +4396,14 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4212,46 +4479,52 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E59" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F59" s="3">
         <v>900</v>
       </c>
       <c r="G59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>900</v>
+      </c>
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
-      </c>
-      <c r="N59" s="3">
-        <v>600</v>
-      </c>
-      <c r="O59" s="3">
-        <v>600</v>
       </c>
       <c r="P59" s="3">
         <v>600</v>
@@ -4263,23 +4536,23 @@
         <v>600</v>
       </c>
       <c r="S59" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T59" s="3">
         <v>600</v>
       </c>
       <c r="U59" s="3">
+        <v>700</v>
+      </c>
+      <c r="V59" s="3">
+        <v>600</v>
+      </c>
+      <c r="W59" s="3">
         <v>500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>500</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4289,8 +4562,14 @@
       <c r="AA59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4366,8 +4645,14 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4443,8 +4728,14 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4520,8 +4811,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,74 +5060,80 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>231400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>235900</v>
+      </c>
+      <c r="F66" s="3">
         <v>233700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>232100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>220500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>207700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>206000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>200000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>197000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>186400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>169400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>166600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>158800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>157600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>158200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>156900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>149100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>151800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>151800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>190600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>160100</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4828,8 +5143,14 @@
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5423,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,74 +5506,80 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>24900</v>
+      </c>
+      <c r="F72" s="3">
         <v>24700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>24300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>23900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>23500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>23300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>22900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>22600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>22300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>22200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>22000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>21700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>21400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>21200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>21200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>21000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>20700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>20200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>19900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>19600</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5242,8 +5589,14 @@
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,74 +5838,80 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>33300</v>
+      </c>
+      <c r="F76" s="3">
         <v>30800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>34400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>41000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>46500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>46200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>49100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>47900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>49000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>48800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>50900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>49500</v>
-      </c>
-      <c r="O76" s="3">
-        <v>50800</v>
-      </c>
-      <c r="P76" s="3">
-        <v>50900</v>
       </c>
       <c r="Q76" s="3">
         <v>50800</v>
       </c>
       <c r="R76" s="3">
+        <v>50900</v>
+      </c>
+      <c r="S76" s="3">
+        <v>50800</v>
+      </c>
+      <c r="T76" s="3">
         <v>49600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>48800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>47700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>24100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>23900</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5550,8 +5921,14 @@
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,104 +6004,116 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E81" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F81" s="3">
         <v>500</v>
       </c>
       <c r="G81" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H81" s="3">
         <v>500</v>
@@ -5733,61 +6122,67 @@
         <v>400</v>
       </c>
       <c r="J81" s="3">
+        <v>500</v>
+      </c>
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>400</v>
+      </c>
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>500</v>
-      </c>
-      <c r="T81" s="3">
-        <v>300</v>
-      </c>
-      <c r="U81" s="3">
-        <v>300</v>
       </c>
       <c r="V81" s="3">
         <v>300</v>
       </c>
       <c r="W81" s="3">
+        <v>300</v>
+      </c>
+      <c r="X81" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y81" s="3">
         <v>200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>500</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,20 +6210,22 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
@@ -5854,14 +6251,14 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
@@ -5883,17 +6280,23 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z83" s="3" t="s">
-        <v>3</v>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,8 +6704,14 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6286,76 +6719,82 @@
         <v>800</v>
       </c>
       <c r="E89" s="3">
+        <v>400</v>
+      </c>
+      <c r="F89" s="3">
+        <v>800</v>
+      </c>
+      <c r="G89" s="3">
         <v>700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>700</v>
-      </c>
-      <c r="I89" s="3">
-        <v>500</v>
-      </c>
-      <c r="J89" s="3">
-        <v>600</v>
       </c>
       <c r="K89" s="3">
         <v>500</v>
       </c>
       <c r="L89" s="3">
+        <v>600</v>
+      </c>
+      <c r="M89" s="3">
+        <v>500</v>
+      </c>
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>800</v>
-      </c>
-      <c r="O89" s="3">
-        <v>400</v>
-      </c>
-      <c r="P89" s="3">
-        <v>300</v>
       </c>
       <c r="Q89" s="3">
         <v>400</v>
       </c>
       <c r="R89" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="S89" s="3">
         <v>400</v>
       </c>
       <c r="T89" s="3">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="U89" s="3">
         <v>400</v>
       </c>
       <c r="V89" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W89" s="3">
+        <v>400</v>
+      </c>
+      <c r="X89" s="3">
         <v>300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>200</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,61 +6822,63 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -6451,17 +6892,23 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z91" s="3" t="s">
-        <v>3</v>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,85 +7067,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-12300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-22800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-3400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-4800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-8400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>2500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-22100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-8000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-5100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>1300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>4000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-6700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-8800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-4100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-4200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>2300</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,16 +7185,18 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E96" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F96" s="3">
         <v>-100</v>
@@ -6771,10 +7238,10 @@
         <v>-100</v>
       </c>
       <c r="S96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U96" s="3">
         <v>0</v>
@@ -6797,8 +7264,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,85 +7513,97 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F100" s="3">
         <v>1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>9300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>12500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>3400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>11000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>15700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>5600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>7700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-2700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-16500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>30500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>7700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7182,81 +7679,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-9600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-5300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>14100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-5800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-7100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>12100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-2600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-6400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-24000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>26800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>8900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-3400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>900</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSVB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSVB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>MSVB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,144 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E8" s="3">
         <v>2500</v>
       </c>
       <c r="F8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G8" s="3">
         <v>2300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1900</v>
       </c>
       <c r="I8" s="3">
         <v>1900</v>
@@ -816,16 +820,16 @@
         <v>1900</v>
       </c>
       <c r="N8" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="O8" s="3">
         <v>1800</v>
       </c>
       <c r="P8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>2000</v>
       </c>
       <c r="R8" s="3">
         <v>2000</v>
@@ -840,16 +844,16 @@
         <v>2000</v>
       </c>
       <c r="V8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W8" s="3">
         <v>1900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1700</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>1600</v>
       </c>
       <c r="Z8" s="3">
         <v>1600</v>
@@ -860,11 +864,14 @@
       <c r="AB8" s="3">
         <v>1600</v>
       </c>
-      <c r="AC8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -946,8 +953,11 @@
       <c r="AC9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1039,11 @@
       <c r="AC10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,8 +1329,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,8 +1446,9 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1429,22 +1456,22 @@
         <v>700</v>
       </c>
       <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
@@ -1462,7 +1489,7 @@
         <v>200</v>
       </c>
       <c r="P17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>300</v>
@@ -1471,16 +1498,16 @@
         <v>300</v>
       </c>
       <c r="S17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
       </c>
       <c r="U17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W17" s="3">
         <v>200</v>
@@ -1489,45 +1516,48 @@
         <v>200</v>
       </c>
       <c r="Y17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z17" s="3">
         <v>-200</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>200</v>
       </c>
       <c r="AA17" s="3">
         <v>200</v>
       </c>
       <c r="AB17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC17" s="3">
         <v>-100</v>
       </c>
-      <c r="AC17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E18" s="3">
         <v>1800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1900</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1700</v>
       </c>
       <c r="K18" s="3">
         <v>1700</v>
@@ -1539,7 +1569,7 @@
         <v>1700</v>
       </c>
       <c r="N18" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="O18" s="3">
         <v>1600</v>
@@ -1548,46 +1578,49 @@
         <v>1600</v>
       </c>
       <c r="Q18" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="R18" s="3">
         <v>1700</v>
       </c>
       <c r="S18" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="T18" s="3">
         <v>1800</v>
       </c>
       <c r="U18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V18" s="3">
         <v>2000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1800</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>1400</v>
       </c>
       <c r="AA18" s="3">
         <v>1400</v>
       </c>
       <c r="AB18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AC18" s="3">
         <v>1700</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1650,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,52 +1660,52 @@
         <v>-1500</v>
       </c>
       <c r="E20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1400</v>
       </c>
       <c r="G20" s="3">
         <v>-1400</v>
       </c>
       <c r="H20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1300</v>
       </c>
       <c r="L20" s="3">
         <v>-1300</v>
       </c>
       <c r="M20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1200</v>
       </c>
       <c r="P20" s="3">
         <v>-1200</v>
       </c>
       <c r="Q20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-1400</v>
       </c>
       <c r="U20" s="3">
         <v>-1400</v>
@@ -1680,10 +1714,10 @@
         <v>-1400</v>
       </c>
       <c r="W20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="X20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-1100</v>
       </c>
       <c r="Y20" s="3">
         <v>-1100</v>
@@ -1692,75 +1726,78 @@
         <v>-1100</v>
       </c>
       <c r="AA20" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="AB20" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E21" s="3">
         <v>400</v>
       </c>
       <c r="F21" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G21" s="3">
         <v>600</v>
       </c>
       <c r="H21" s="3">
+        <v>600</v>
+      </c>
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>400</v>
       </c>
       <c r="L21" s="3">
         <v>400</v>
       </c>
       <c r="M21" s="3">
+        <v>400</v>
+      </c>
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>600</v>
-      </c>
-      <c r="V21" s="3">
-        <v>400</v>
       </c>
       <c r="W21" s="3">
         <v>400</v>
@@ -1769,22 +1806,25 @@
         <v>400</v>
       </c>
       <c r="Y21" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z21" s="3">
         <v>700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>400</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC21" s="3">
         <v>800</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,91 +1906,97 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>500</v>
-      </c>
-      <c r="K23" s="3">
-        <v>400</v>
       </c>
       <c r="L23" s="3">
         <v>400</v>
       </c>
       <c r="M23" s="3">
+        <v>400</v>
+      </c>
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>400</v>
       </c>
       <c r="P23" s="3">
         <v>400</v>
       </c>
       <c r="Q23" s="3">
+        <v>400</v>
+      </c>
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>300</v>
-      </c>
-      <c r="W23" s="3">
-        <v>400</v>
       </c>
       <c r="X23" s="3">
         <v>400</v>
       </c>
       <c r="Y23" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z23" s="3">
         <v>700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>700</v>
       </c>
-      <c r="AC23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1991,11 +2037,11 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -2003,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U24" s="3">
         <v>100</v>
@@ -2018,22 +2064,25 @@
         <v>100</v>
       </c>
       <c r="Y24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z24" s="3">
         <v>500</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>100</v>
       </c>
       <c r="AA24" s="3">
         <v>100</v>
       </c>
       <c r="AB24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC24" s="3">
         <v>300</v>
       </c>
-      <c r="AC24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,19 +2164,22 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>500</v>
       </c>
       <c r="G26" s="3">
         <v>500</v>
@@ -2136,46 +2188,46 @@
         <v>500</v>
       </c>
       <c r="I26" s="3">
+        <v>500</v>
+      </c>
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>400</v>
       </c>
       <c r="L26" s="3">
         <v>400</v>
       </c>
       <c r="M26" s="3">
+        <v>400</v>
+      </c>
+      <c r="N26" s="3">
         <v>200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>300</v>
       </c>
       <c r="O26" s="3">
         <v>300</v>
       </c>
       <c r="P26" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>500</v>
-      </c>
-      <c r="V26" s="3">
-        <v>300</v>
       </c>
       <c r="W26" s="3">
         <v>300</v>
@@ -2184,33 +2236,36 @@
         <v>300</v>
       </c>
       <c r="Y26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z26" s="3">
         <v>200</v>
       </c>
       <c r="AA26" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB26" s="3">
         <v>300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>500</v>
       </c>
-      <c r="AC26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>500</v>
       </c>
       <c r="G27" s="3">
         <v>500</v>
@@ -2219,46 +2274,46 @@
         <v>500</v>
       </c>
       <c r="I27" s="3">
+        <v>500</v>
+      </c>
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>400</v>
       </c>
       <c r="L27" s="3">
         <v>400</v>
       </c>
       <c r="M27" s="3">
+        <v>400</v>
+      </c>
+      <c r="N27" s="3">
         <v>200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>300</v>
       </c>
       <c r="O27" s="3">
         <v>300</v>
       </c>
       <c r="P27" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>500</v>
-      </c>
-      <c r="V27" s="3">
-        <v>300</v>
       </c>
       <c r="W27" s="3">
         <v>300</v>
@@ -2267,22 +2322,25 @@
         <v>300</v>
       </c>
       <c r="Y27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z27" s="3">
         <v>200</v>
       </c>
       <c r="AA27" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB27" s="3">
         <v>300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>500</v>
       </c>
-      <c r="AC27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2680,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2622,52 +2692,52 @@
         <v>1500</v>
       </c>
       <c r="E32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F32" s="3">
         <v>1600</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1400</v>
       </c>
       <c r="G32" s="3">
         <v>1400</v>
       </c>
       <c r="H32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1300</v>
       </c>
       <c r="L32" s="3">
         <v>1300</v>
       </c>
       <c r="M32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N32" s="3">
         <v>1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1200</v>
       </c>
       <c r="P32" s="3">
         <v>1200</v>
       </c>
       <c r="Q32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R32" s="3">
         <v>1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1500</v>
-      </c>
-      <c r="T32" s="3">
-        <v>1400</v>
       </c>
       <c r="U32" s="3">
         <v>1400</v>
@@ -2676,10 +2746,10 @@
         <v>1400</v>
       </c>
       <c r="W32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X32" s="3">
         <v>1300</v>
-      </c>
-      <c r="X32" s="3">
-        <v>1100</v>
       </c>
       <c r="Y32" s="3">
         <v>1100</v>
@@ -2688,27 +2758,30 @@
         <v>1100</v>
       </c>
       <c r="AA32" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="AB32" s="3">
         <v>1000</v>
       </c>
-      <c r="AC32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>500</v>
       </c>
       <c r="G33" s="3">
         <v>500</v>
@@ -2717,46 +2790,46 @@
         <v>500</v>
       </c>
       <c r="I33" s="3">
+        <v>500</v>
+      </c>
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>400</v>
       </c>
       <c r="L33" s="3">
         <v>400</v>
       </c>
       <c r="M33" s="3">
+        <v>400</v>
+      </c>
+      <c r="N33" s="3">
         <v>200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>300</v>
       </c>
       <c r="O33" s="3">
         <v>300</v>
       </c>
       <c r="P33" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>500</v>
-      </c>
-      <c r="V33" s="3">
-        <v>300</v>
       </c>
       <c r="W33" s="3">
         <v>300</v>
@@ -2765,22 +2838,25 @@
         <v>300</v>
       </c>
       <c r="Y33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z33" s="3">
         <v>200</v>
       </c>
       <c r="AA33" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB33" s="3">
         <v>300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>500</v>
       </c>
-      <c r="AC33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,19 +2938,22 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>500</v>
       </c>
       <c r="G35" s="3">
         <v>500</v>
@@ -2883,46 +2962,46 @@
         <v>500</v>
       </c>
       <c r="I35" s="3">
+        <v>500</v>
+      </c>
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>400</v>
       </c>
       <c r="L35" s="3">
         <v>400</v>
       </c>
       <c r="M35" s="3">
+        <v>400</v>
+      </c>
+      <c r="N35" s="3">
         <v>200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>300</v>
       </c>
       <c r="O35" s="3">
         <v>300</v>
       </c>
       <c r="P35" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>500</v>
-      </c>
-      <c r="V35" s="3">
-        <v>300</v>
       </c>
       <c r="W35" s="3">
         <v>300</v>
@@ -2931,110 +3010,116 @@
         <v>300</v>
       </c>
       <c r="Y35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z35" s="3">
         <v>200</v>
       </c>
       <c r="AA35" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB35" s="3">
         <v>300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>500</v>
       </c>
-      <c r="AC35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,8 +3181,9 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3104,49 +3191,49 @@
         <v>1200</v>
       </c>
       <c r="E41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2400</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1800</v>
       </c>
       <c r="M41" s="3">
         <v>1800</v>
       </c>
       <c r="N41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O41" s="3">
         <v>1900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1300</v>
-      </c>
-      <c r="S41" s="3">
-        <v>900</v>
       </c>
       <c r="T41" s="3">
         <v>900</v>
@@ -3155,17 +3242,17 @@
         <v>900</v>
       </c>
       <c r="V41" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="W41" s="3">
         <v>800</v>
       </c>
       <c r="X41" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y41" s="3">
         <v>700</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,77 +3265,80 @@
       <c r="AC41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E42" s="3">
         <v>5000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>6500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>4100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>4600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>5900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>15800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>17000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>16900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>22800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>22000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>20400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>18000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>19400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>22000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>9900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>12600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>19100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>43100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>16400</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3261,8 +3351,11 @@
       <c r="AC42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3344,8 +3437,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3523,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3510,8 +3609,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3593,8 +3695,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,13 +3781,16 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E48" s="3">
         <v>2200</v>
@@ -3691,34 +3799,34 @@
         <v>2200</v>
       </c>
       <c r="G48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H48" s="3">
         <v>2100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2000</v>
       </c>
       <c r="I48" s="3">
         <v>2000</v>
       </c>
       <c r="J48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1900</v>
-      </c>
-      <c r="K48" s="3">
-        <v>2000</v>
       </c>
       <c r="L48" s="3">
         <v>2000</v>
       </c>
       <c r="M48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N48" s="3">
         <v>1900</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1800</v>
       </c>
       <c r="O48" s="3">
         <v>1800</v>
       </c>
       <c r="P48" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="Q48" s="3">
         <v>1900</v>
@@ -3739,13 +3847,13 @@
         <v>1900</v>
       </c>
       <c r="W48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="X48" s="3">
         <v>2000</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>3</v>
+      <c r="Y48" s="3">
+        <v>2000</v>
       </c>
       <c r="Z48" s="3" t="s">
         <v>3</v>
@@ -3759,8 +3867,11 @@
       <c r="AC48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4125,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4091,8 +4211,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,77 +4297,80 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>266300</v>
+      </c>
+      <c r="E54" s="3">
         <v>266400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>269200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>264500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>266500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>261500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>254300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>252300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>249200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>244900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>235400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>218300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>217500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>208300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>208400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>209100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>207700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>198700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>200700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>199400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>214800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>184000</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4257,8 +4383,11 @@
       <c r="AC54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,17 +4449,18 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
@@ -4366,8 +4497,8 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
+      <c r="R57" s="3">
+        <v>0</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
@@ -4381,8 +4512,8 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
+      <c r="W57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X57" s="3">
         <v>0</v>
@@ -4402,8 +4533,11 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4485,49 +4619,52 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>800</v>
       </c>
       <c r="J59" s="3">
         <v>800</v>
       </c>
       <c r="K59" s="3">
+        <v>800</v>
+      </c>
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
-      </c>
-      <c r="P59" s="3">
-        <v>600</v>
       </c>
       <c r="Q59" s="3">
         <v>600</v>
@@ -4542,19 +4679,19 @@
         <v>600</v>
       </c>
       <c r="U59" s="3">
+        <v>600</v>
+      </c>
+      <c r="V59" s="3">
         <v>700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>600</v>
-      </c>
-      <c r="W59" s="3">
-        <v>500</v>
       </c>
       <c r="X59" s="3">
         <v>500</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>3</v>
+      <c r="Y59" s="3">
+        <v>500</v>
       </c>
       <c r="Z59" s="3" t="s">
         <v>3</v>
@@ -4568,8 +4705,11 @@
       <c r="AC59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4651,8 +4791,11 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4734,8 +4877,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,77 +5221,80 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>232200</v>
+      </c>
+      <c r="E66" s="3">
         <v>231400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>235900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>233700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>232100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>220500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>207700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>206000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>200000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>197000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>186400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>169400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>166600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>158800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>157600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>158200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>156900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>149100</v>
-      </c>
-      <c r="U66" s="3">
-        <v>151800</v>
       </c>
       <c r="V66" s="3">
         <v>151800</v>
       </c>
       <c r="W66" s="3">
+        <v>151800</v>
+      </c>
+      <c r="X66" s="3">
         <v>190600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>160100</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5149,8 +5307,11 @@
       <c r="AC66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,77 +5683,80 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E72" s="3">
         <v>24600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>24900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>24700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>24300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>23900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>23500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>23300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>22300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>22200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>21700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>21400</v>
-      </c>
-      <c r="R72" s="3">
-        <v>21200</v>
       </c>
       <c r="S72" s="3">
         <v>21200</v>
       </c>
       <c r="T72" s="3">
+        <v>21200</v>
+      </c>
+      <c r="U72" s="3">
         <v>21000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>20700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>20200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>19900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>19600</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5595,8 +5769,11 @@
       <c r="AC72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,77 +6027,80 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E76" s="3">
         <v>34900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>33300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>30800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>34400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>41000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>46500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>46200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>49100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>47900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>49000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>48800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>50900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>49500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>50800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>50900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>50800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>49600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>48800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>47700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>24100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>23900</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5927,8 +6113,11 @@
       <c r="AC76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,107 +6199,113 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>500</v>
       </c>
       <c r="G81" s="3">
         <v>500</v>
@@ -6119,46 +6314,46 @@
         <v>500</v>
       </c>
       <c r="I81" s="3">
+        <v>500</v>
+      </c>
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>400</v>
       </c>
       <c r="L81" s="3">
         <v>400</v>
       </c>
       <c r="M81" s="3">
+        <v>400</v>
+      </c>
+      <c r="N81" s="3">
         <v>200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>300</v>
       </c>
       <c r="O81" s="3">
         <v>300</v>
       </c>
       <c r="P81" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>500</v>
-      </c>
-      <c r="V81" s="3">
-        <v>300</v>
       </c>
       <c r="W81" s="3">
         <v>300</v>
@@ -6167,22 +6362,25 @@
         <v>300</v>
       </c>
       <c r="Y81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z81" s="3">
         <v>200</v>
       </c>
       <c r="AA81" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB81" s="3">
         <v>300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>500</v>
       </c>
-      <c r="AC81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6410,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6224,11 +6423,11 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -6257,11 +6456,11 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
@@ -6286,8 +6485,8 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>3</v>
+      <c r="AA83" s="3">
+        <v>0</v>
       </c>
       <c r="AB83" s="3" t="s">
         <v>3</v>
@@ -6295,8 +6494,11 @@
       <c r="AC83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>700</v>
+      </c>
+      <c r="E89" s="3">
         <v>800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>700</v>
-      </c>
-      <c r="H89" s="3">
-        <v>600</v>
       </c>
       <c r="I89" s="3">
         <v>600</v>
       </c>
       <c r="J89" s="3">
+        <v>600</v>
+      </c>
+      <c r="K89" s="3">
         <v>700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>500</v>
-      </c>
-      <c r="N89" s="3">
-        <v>300</v>
       </c>
       <c r="O89" s="3">
         <v>300</v>
       </c>
       <c r="P89" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q89" s="3">
         <v>800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>400</v>
-      </c>
-      <c r="X89" s="3">
-        <v>300</v>
       </c>
       <c r="Y89" s="3">
         <v>300</v>
       </c>
       <c r="Z89" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA89" s="3">
         <v>200</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,43 +7044,44 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6869,19 +7090,19 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -6898,8 +7119,8 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>3</v>
+      <c r="AA91" s="3">
+        <v>0</v>
       </c>
       <c r="AB91" s="3" t="s">
         <v>3</v>
@@ -6907,8 +7128,11 @@
       <c r="AC91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7300,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>400</v>
+      </c>
+      <c r="E94" s="3">
         <v>2600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-22800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-22100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>4000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>2300</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7199,7 +7433,7 @@
         <v>-200</v>
       </c>
       <c r="F96" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G96" s="3">
         <v>-100</v>
@@ -7244,7 +7478,7 @@
         <v>-100</v>
       </c>
       <c r="U96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V96" s="3">
         <v>0</v>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,91 +7762,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>9300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>12500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>11000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>15700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>7700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-16500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>30500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>7700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,87 +7934,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>14100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>12100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-24000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>26800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>8900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>900</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
